--- a/docs/downloads/Assessment Summary.xlsx
+++ b/docs/downloads/Assessment Summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Red List summary" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="assessment_summary" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -127,7 +127,7 @@
     <t>NS</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 33.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (60,700 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (548 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 33.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (60,700 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (548 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -156,56 +156,56 @@
     <t>NF</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 7.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (199,050 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,376 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 7.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (199,050 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,376 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena apicata: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -9.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (122,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (640 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -9.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (122,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (640 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena argentata: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -19.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (44,400 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (448 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -19.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (44,400 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (448 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena barbilabris: iso. Amiet et al: 2010</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -26.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (328,000 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,736 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -26.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (328,000 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,736 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena bicolor: iso. Amiet et al: 2010</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 3.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (363,250 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (9,152 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 3.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (363,250 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (9,152 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena bimaculata: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 19.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (95,250 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,036 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 19.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (95,250 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,036 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena bucephala: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 25.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (95,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (912 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 25.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (95,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (912 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena chrysosceles: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 10.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (221,250 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (7,276 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 10.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (221,250 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (7,276 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -220,14 +220,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 6.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (287,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (7,208 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 6.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (287,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (7,208 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena clarkella: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -4.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (415,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,608 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -4.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (415,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,608 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -242,7 +242,8 @@
 </t>
   </si>
   <si>
-    <t>The most threatening accepted population change estimate is -10.0% (raw record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. However, expert inference noted that the taxon appears to be retreating northwards, even with the overall bias towards southern sampling present in the aculeates. The very low data volume makes any attempt at precise estimation impossible, though this inference was unanimously supported by wider peer review. The suspected mechanic for this shift is the warming climate, though again the details of how are unknown. Given the lack of data to support a 30% decline, coupled with the overall concern at a longer-term downward trend, this taxon has been placed in NT to encapsulate the inferred risk of continued decline as temperatures increase._x000b__x000b_The EoO (367,650 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (496 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>The most threatening accepted population change estimate is -10.0% (raw record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. However, expert inference noted that the taxon appears to be retreating northwards, even with the overall bias towards southern sampling present in the aculeates. The very low data volume makes any attempt at precise estimation impossible, though this inference was unanimously supported by wider peer review. The suspected mechanic for this shift is the warming climate, though again the details of how are unknown. Given the lack of data to support a 30% decline, coupled with the overall concern at a longer-term downward trend, this taxon has been placed in NT to encapsulate the inferred risk of continued decline as temperatures increase.
+The EoO (367,650 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (496 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 This is a small solitary bee.  Though always local in GB it has become very localised and rare south of the Severn to the Wash line (except for Cornwall) despite higher sampling in this area.</t>
   </si>
   <si>
@@ -261,7 +262,7 @@
     <t>Andrena denticulata: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -2.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (300,750 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,984 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -2.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (300,750 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,984 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -277,14 +278,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 8.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (148,950 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (7,912 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 8.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (148,950 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (7,912 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena falsifica: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (36,850 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (156 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (36,850 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (156 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -294,21 +295,21 @@
     <t>NR</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (7,750 km^2) is below the 20,000 km^2 VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (64 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (7,750 km²) is below the 20,000 km² VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (64 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena flavipes: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 20.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (168,400 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (9,260 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 20.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (168,400 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (9,260 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena florea: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 50.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (28,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,148 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 50.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (28,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,148 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -322,77 +323,77 @@
     <t>Andrena fucata: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 11.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (335,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,172 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 11.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (335,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,172 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena fulva: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 9.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (232,750 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (7,744 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 9.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (232,750 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (7,744 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena fulvago: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 72.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (124,750 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (928 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 72.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (124,750 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (928 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena fuscipes: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -3.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (324,050 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,004 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -3.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (324,050 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,004 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena gravida: iso. Amiet et al: 2010</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 51.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (6,900 km^2) is below the 20,000 km^2 VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (152 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 51.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (6,900 km²) is below the 20,000 km² VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (152 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena haemorrhoa: iso. Amiet et al: 2010</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 6.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (376,450 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (14,780 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 6.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (376,450 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (14,780 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena hattorfiana: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 4.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (99,250 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (616 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 4.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (99,250 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (616 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena helvola: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -11.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (255,500 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,932 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -11.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (255,500 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,932 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena humilis: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -6.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (176,850 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,352 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -6.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (176,850 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,352 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena labialis: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 37.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (126,000 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,804 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 37.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (126,000 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,804 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena labiata: iso. Amiet et al: 2010</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 12.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (180,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,240 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 12.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (180,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,240 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -403,7 +404,8 @@
 </t>
   </si>
   <si>
-    <t>The most threatening accepted population change estimate is 10.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. Expert inference has been used to assess this taxon as NT under the basis of expected decline of *Vaccinium* over the southern range. This decline is expected to be produced by the warming climate reducing areas of suitability for *Vaccinium*, which is known to be highly responsive to such changes [(Hirabayashi et al, 2022)](https://doi.org/10.1016/j.scitotenv.2022.157341). There is potential for *Vaccinium* to reach such low densities in the southern range of *A. lapponcia* that the region ceases to be able to support a viable population. Whilst reviewers noted that this taxon, and its food plant, remain common in northern areas of this assessment, the Red List criteria include *extent of habitat*. As such, the assessment of NT was maintained specifically under projected increased severity of this threat factor._x000b__x000b_The EoO (249,350 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,204 km^2) is below the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>The most threatening accepted population change estimate is 10.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. Expert inference has been used to assess this taxon as NT under the basis of expected decline of *Vaccinium* over the southern range. This decline is expected to be produced by the warming climate reducing areas of suitability for *Vaccinium*, which is known to be highly responsive to such changes [(Hirabayashi et al, 2022)](https://doi.org/10.1016/j.scitotenv.2022.157341). There is potential for *Vaccinium* to reach such low densities in the southern range of *A. lapponcia* that the region ceases to be able to support a viable population. Whilst reviewers noted that this taxon, and its food plant, remain common in northern areas of this assessment, the Red List criteria include *extent of habitat*. As such, the assessment of NT was maintained specifically under projected increased severity of this threat factor.
+The EoO (249,350 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,204 km²) is below the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 This medium sized solitary bee species has always been uncommon and localised south of the Severn to the Wash line. Even in areas with suitable habitat and favoured genus of forage plants (Vaccinium – usually V. myrtillis) there have been localised losses even in the core population areas and there is a risk of climate change reducing viable habitat areas and host plants.</t>
   </si>
   <si>
@@ -434,21 +436,21 @@
     <t>Andrena marginata: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 28.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (263,400 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (444 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 28.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (263,400 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (444 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena minutula: iso. Amiet et al: 2010</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 7.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (252,000 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (8,800 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 7.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (252,000 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (8,800 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena minutuloides: iso. Amiet et al: 2010</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 32.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (58,750 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (872 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 32.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (58,750 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (872 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -469,14 +471,14 @@
     <t>Andrena nigriceps: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 7.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (220,750 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (456 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 7.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (220,750 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (456 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena nigroaenea: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 8.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (292,550 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (9,264 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 8.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (292,550 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (9,264 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -496,14 +498,14 @@
     <t>Andrena nitida: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 8.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (170,350 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (8,484 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 8.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (170,350 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (8,484 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena nitidiuscula: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 25.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (36,650 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (392 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 25.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (36,650 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (392 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -517,7 +519,8 @@
 )</t>
   </si>
   <si>
-    <t>No statistical assessment was possible under Criterion A due insufficient data. Expert inference assessed this taxon as NT under future threat on the basis of continued intensification of the very localised known occupied areas._x000b__x000b_The EoO (21,300 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (104 km^2) is below the 500 km^2 EN threshold for criterion B2 , has fewer or equal to 5 locations, and satisfies the requirement for continuing decline in extent of occurrence, area of occupancy, and area,extent &amp; quality of habitat. For Criterion D2, the number of locations was fewer or equal to 5, and there is a plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>No statistical assessment was possible under Criterion A due insufficient data. Expert inference assessed this taxon as NT under future threat on the basis of continued intensification of the very localised known occupied areas.
+The EoO (21,300 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (104 km²) is below the 500 km² EN threshold for criterion B2 , has fewer or equal to 5 locations, and satisfies the requirement for continuing decline in extent of occurrence, area of occupancy, and area, extent &amp; quality of habitat. For Criterion D2, the number of locations was fewer or equal to 5, and there is a plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 This is a rare species of solitary bee (though possibly overlooked) that is very sparsely distributed from East Kent to South Devon, north to Caernarvon. Intensification of agriculture is perceived as a moderate probability/high threat risk. This particularly covers conversion of current habitat to permanent pasture, vineyards, and cereal crops. The taxon has not been observed on Oilseed Rape and is instead on Charlock (Sinapsis arvensis) beside the agricultural crop. Known locations are extremely localised, showing little ability for populations to expand.</t>
   </si>
   <si>
@@ -545,7 +548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (62,250 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (276 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (62,250 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (276 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -559,7 +562,7 @@
     <t>Andrena praecox: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 24.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (154,700 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,212 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 24.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (154,700 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,212 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -572,14 +575,14 @@
     <t>Andrena rosae: iso. Else &amp; Edwards: 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (35,900 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (184 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (35,900 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (184 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena ruficrus: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (130,050 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (448 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (130,050 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (448 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -599,49 +602,51 @@
     <t>Andrena semilaevis: iso. Amiet et al: 2010</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 8.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (331,500 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (4,184 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 8.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (331,500 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (4,184 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena simillima: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t>No statistical assessment was possible under Criterion A due insufficient data. Expert inference assessed this taxon as LC due to the absence of known declines over a 10 year period. The EoO (15,650 km^2) is below the 20,000 km^2 VU threshold for criterion B1 and, whilst the population is considered to be fragmented, does not satisfy sufficient subcriteria to reach a threat status. The AoO (120 km^2) is below the 500 km^2 EN threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E._x000b__x000b_When this taxon was presented to the wider peer review group, there was near-unanimous agreement that the Red List criteria did not adequately capture the threats to this taxon. As such, this taxon has been moderated by one step from LC to NT.
+    <t>No statistical assessment was possible under Criterion A due insufficient data. Expert inference assessed this taxon as LC due to the absence of known declines over a 10 year period. The EoO (15,650 km²) is below the 20,000 km² VU threshold for criterion B1 and, whilst the population is considered to be fragmented, does not satisfy sufficient subcriteria to reach a threat status. The AoO (120 km²) is below the 500 km² EN threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+When this taxon was presented to the wider peer review group, there was near-unanimous agreement that the Red List criteria did not adequately capture the threats to this taxon. As such, this taxon has been moderated by one step from LC to NT.
 The provisional red list status of this species – which is very similar in habitus and biology / ecology to Andrena nigriceps (though much more restricted and rarer) was of Least Concern. Following external moderation, it was accepted that the populations of the species are restricted and scattered at a level that would almost elevate the species to vulnerable, though Near Threatened is thought to be the most appropriated threat level.</t>
   </si>
   <si>
     <t>Andrena subopaca: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 2.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (354,300 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (5,800 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 2.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (354,300 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (5,800 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena synadelpha: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -14.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (241,850 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,320 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -14.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (241,850 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,320 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena tarsata: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t>The most threatening accepted population change estimate is -9.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. However, expert inference noted a distinct decline in records from the south of England, which is typically the most well-sampled area for the aculeates. Such a decline is thought to be real, indicating the potential existence of a northward contraction due to changing climate. This finding was supported by the wider consultation of experts, with those in the south noting a decrease and those north of the midlands not yet noticing a decrease. The northern 'increase' is suspected to be the result of targeted survey effort in these areas, coupled with the overall increase in recording from Scotland (though record numbers are still very low overall from this region) Given the distinct regionality of the change, as well as the lack of widespread decline, this taxon has been placed in NT to encapsulate the inferred risk of continued decline as temperatures increase._x000b__x000b_The EoO (351,300 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (804 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>The most threatening accepted population change estimate is -9.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. However, expert inference noted a distinct decline in records from the south of England, which is typically the most well-sampled area for the aculeates. Such a decline is thought to be real, indicating the potential existence of a northward contraction due to changing climate. This finding was supported by the wider consultation of experts, with those in the south noting a decrease and those north of the midlands not yet noticing a decrease. The northern 'increase' is suspected to be the result of targeted survey effort in these areas, coupled with the overall increase in recording from Scotland (though record numbers are still very low overall from this region) Given the distinct regionality of the change, as well as the lack of widespread decline, this taxon has been placed in NT to encapsulate the inferred risk of continued decline as temperatures increase.
+The EoO (351,300 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (804 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 A northwest biased small, solitary and oligolectic bee, usually found on grassland and heaths that support plentiful amounts of its obligate pollen plants in the Potentilla genus. It is uncommon and localised south of the Severn to the Wash line (except for Cornwall) and has much declined in some lowland areas (e.g. northwest England). This species was subject to a JNCC Species Action Plan.</t>
   </si>
   <si>
     <t>Andrena thoracica: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 19.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (156,250 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,516 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 19.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (156,250 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,516 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena tibialis: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -6.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (121,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (764 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -6.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (121,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (764 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -658,56 +663,56 @@
     <t>Andrena vaga: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 11.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (8,550 km^2) is below the 20,000 km^2 VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (48 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 11.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (8,550 km²) is below the 20,000 km² VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (48 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena varians: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 61.0% (Bayesian upper 95% CI), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (111,700 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (444 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 61.0% (Bayesian upper 95% CI), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (111,700 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (444 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Andrena wilkella: iso. Praz et al: 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -5.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (300,500 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,340 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -5.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (300,500 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,340 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Anthidium manicatum: iso. Amiet et al: 2004</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -15.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (237,500 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,052 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -15.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (237,500 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,052 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Anthophora bimaculata: iso. Amiet et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 11.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (88,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,032 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 11.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (88,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,032 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Anthophora furcata: iso. Amiet et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 8.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (272,000 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,712 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 8.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (272,000 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,712 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Anthophora plumipes: iso. Amiet et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 14.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (193,700 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (7,052 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 14.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (193,700 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (7,052 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Anthophora quadrimaculata: iso. Amiet et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 36.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (84,350 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (560 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 36.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (84,350 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (560 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -721,7 +726,7 @@
 )</t>
   </si>
   <si>
-    <t>To statistical assessment was accepted as valid under Criterion A, where expert inference assessed this taxon as LC. The EoO (8,350 km^2) is below the 20,000 km^2 VU threshold for criterion B1, the AoO (56 km^2) is below the 500 km^2 EN threshold for criterion B2, the number of locations are fewer or equal to 5 (EN), and there has been, and is expected to be again in the future, significant decline in the area, extent, and quality of habitat for this taxon. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>No statistical assessment was accepted as valid under Criterion A, where expert inference assessed this taxon as LC. The EoO (8,350 km²) is below the 20,000 km² VU threshold for criterion B1, the AoO (56 km²) is below the 500 km² EN threshold for criterion B2, the number of locations are fewer or equal to 5 (EN), and there has been, and is expected to be again in the future, significant decline in the area, extent, and quality of habitat for this taxon. For Criterion D2, the number of locations are &lt;= than 5 but there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 Historically this species (superficially similar to the much more common A. plumipes) was well recorded in southern England - from Dorset to Kent, north to Oxfordshire, and East Norfolk. Over more recent decades this bee has undergone a rapid and largely unexplained decline in Britain. In the last two decades it has been reliably recorded from just six sites in Dorset, Isle of Wight, North Hampshire, East Sussex and North Essex. A large area of known nesting habitat in East Sussex was destroyed in one summer storm, leading to substantial population reduction. The taxon is considered to be recovering but is at risk of repeat events.</t>
   </si>
   <si>
@@ -742,7 +747,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (391,300 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,544 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (391,300 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,544 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -753,7 +758,7 @@
 </t>
   </si>
   <si>
-    <t>No statistical assessment was possible under Criterion A due insufficient data. Expert inference assessed this taxon as VU due to the mismatch between this taxon's trends and the overall trend of the *Bombus lucorum agg*: iso. Murray et al: 2008 aggregate which serves as the host. It is unknown if there is host specificity within this complex, as well as the trends of the components of this aggregate (*Bombus lucorum*: iso. Murray et al: 2008, *Bombus cryptarum*: iso. Murray et al: 2008, *Bombus magnus*: iso. Murray et al: 2008) The EoO (382, 050 km^2) is above the 20,000 km^2 VU threshold for criterion B1 and the AoO (4320 km^2) is above the 500 km^2 VU threshold for criterion B2. For Criterion D2, the number of locations was greater than 5, and there is no plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>No statistical assessment was possible under Criterion A due insufficient data. Expert inference assessed this taxon as VU due to the mismatch between this taxon's trends and the overall trend of the *Bombus lucorum agg*: iso. Murray et al: 2008 aggregate which serves as the host. It is unknown if there is host specificity within this complex, as well as the trends of the components of this aggregate (*Bombus lucorum*: iso. Murray et al: 2008, *Bombus cryptarum*: iso. Murray et al: 2008, *Bombus magnus*: iso. Murray et al: 2008) The EoO (382, 050 km²) is above the 20,000 km² VU threshold for criterion B1 and the AoO (4320 km²) is above the 500 km² VU threshold for criterion B2. For Criterion D2, the number of locations was greater than 5, and there is no plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 This parasitic bumblebee is associated with species of the Bombus lucorum agg., though host specificity is unknown. It is retreating northward – and is disappearing from lowland areas of Lancashire and Cumbria (and the south more widely and rapidly). Potential confusion in identification exists with B. vestalis: iso. Cameron et al: 2007 which is expanding into the north - this confusion is suspected to have inflated the record numbers from the 10-year period, hiding a longer-term decline.</t>
   </si>
   <si>
@@ -764,7 +769,7 @@
 </t>
   </si>
   <si>
-    <t>The most threatening accepted population change estimate is -9.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. Expert inference assessed this taxon as NT under future threats due to observed declines whilst a known host remains extremely common. This may reflect a result of climate change where *Bombus pascuorum*: iso. Cameron et al: 2007 is emerging earlier in the year, allowing *B. pascuorum* to reach a nest size that cannot be easily predated upon by the time that *Bombus campestris*: iso. Cameron et al: 2007 emerges. The EoO (322,800 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,292 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>The most threatening accepted population change estimate is -9.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. Expert inference assessed this taxon as NT under future threats due to observed declines whilst a known host remains extremely common. This may reflect a result of climate change where *Bombus pascuorum*: iso. Cameron et al: 2007 is emerging earlier in the year, allowing *B. pascuorum* to reach a nest size that cannot be easily predated upon by the time that *Bombus campestris*: iso. Cameron et al: 2007 emerges. The EoO (322,800 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,292 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 There have been significant decreases in the range of the once common parasitic bumblebee in GB. Substantial declines have been noticed in both southeast and northwest England – especially Cumbria and Lancashire (in the county there have been only two records in the last 15 years, where it was always biased towards the coast).</t>
   </si>
   <si>
@@ -785,42 +790,42 @@
     <t>Bombus distinguendus: iso. Cameron et al: 2007</t>
   </si>
   <si>
-    <t>The most threatening accepted population change estimate is -25.0% (raw record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. Expert inference assessed this taxon as NT under projected change, predominantly due to seal level rises. The EoO (69,700 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and the AoO (1,356 km^2) is below the 2,000 km^2 VU threshold for criterion B2. There are fewer or equal to 5 locations, and there is observed/projected decline in the area, extent, and/or quality of habitat. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>The most threatening accepted population change estimate is -25.0% (raw record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. Expert inference assessed this taxon as NT under projected change, predominantly due to seal level rises. The EoO (69,700 km²) exceeds the 20,000 km² VU threshold for criterion B1 and the AoO (1,356 km²) is below the 2,000 km² VU threshold for criterion B2. There are fewer or equal to 5 locations, and there is observed/projected decline in the area, extent, and/or quality of habitat. For Criterion D2, the number of locations are &lt;= greater than 5 but there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 This bumblebee – very distinctive in the female sex – was historically widespread throughout GB but since the early twentieth century has rapidly declined. A species of extensive natural and semi-natural grassland mosaics which support a high density of flowering legumes, particularly common bird's-foot trefoil and red clover; such mosaics must contain nesting sites, forage areas and hibernation sites. The majority of habitat is at current sea level. In addition to loss of suitable legume-rich “crofting” habitat, rises to high water marks will destroy significant amounts of this habitat. If this destruction happens as part of a major event such as a storm surge, this taxon has limited ability to adapt or recolonise at many sites.</t>
   </si>
   <si>
     <t>Bombus hortorum: iso. Cameron et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -1.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (544,000 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (21,468 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -1.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (544,000 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (21,468 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Bombus humilis: iso. Cameron et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -15.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (142,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,880 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -15.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (142,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,880 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Bombus hypnorum: iso. Cameron et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -27.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (330,700 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (16,292 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -27.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (330,700 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (16,292 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Bombus jonellus: iso. Cameron et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -5.0% (Bayesian upper 95% CI), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (541,700 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (7,108 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -5.0% (Bayesian upper 95% CI), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (541,700 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (7,108 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Bombus lapidarius: iso. Cameron et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -8.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (411,750 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (31,168 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -8.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (411,750 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (31,168 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -841,21 +846,22 @@
 </t>
   </si>
   <si>
-    <t>The most threatening accepted population change estimate is -18.0% (raw record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. Expert inference assessed this taxon as NT under projected threats due to sea level change projected landscape changes. The EoO (273,650 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,152 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>The most threatening accepted population change estimate is -18.0% (raw record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. Expert inference assessed this taxon as NT under projected threats due to sea level change projected landscape changes. The EoO (273,650 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,152 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 Always a restricted bee, almost entirely restricted to north of the Severn-Wash line (with records for Dartmoor in the southwest only) the species has undergone significant population decrease in certain core areas including the West Midlands and northwest and centrally northern areas of England. It also appears to have declined southwest Scotland and the Isle of Man, though the species does seem to operate at the metapopulation level so local extinction and colonisation of new sites does occur frequently. That said, it no longer is as abundant as it was historically and more recent declined add to this. This bumblebee was subject to an English Nature Species Recovery Programme (until 2001), though it is not thought to be subject to conservation efforts at present.</t>
   </si>
   <si>
     <t>Bombus muscorum: iso. Cameron et al: 2007</t>
   </si>
   <si>
-    <t>The most threatening accepted population change estimate is -16.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (543,200 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (4,860 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E._x000b__x000b_This taxon was moderated from LC to NT during peer review, with a majority of reviewers agreeing with NT over LC.
+    <t>The most threatening accepted population change estimate is -16.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (543,200 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (4,860 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+This taxon was moderated from LC to NT during peer review, with a majority of reviewers agreeing with NT over LC.
 This – the largest of the Thoracobombus bumblebee species (which nest on the surface of the ground in) – has undergone a serious and extensive decline since the 1970’s. It is now very rare or absent from central and northwest England, whilst populations in South England and Wales are almost entirely coastal. Despite statistically coming out as LC, the wider review panel unanimously agreed it should be given NT status given the range and extent of decline. This species was previously a BAP species and has continued to show the decline common to many of the bumblebee species covered by this legislation.</t>
   </si>
   <si>
     <t>Bombus pascuorum: iso. Cameron et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -2.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (450,300 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (39,948 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -2.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (450,300 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (39,948 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -869,35 +875,36 @@
     <t>Bombus pratorum: iso. Cameron et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 3.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (405,550 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (22,308 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 3.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (405,550 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (22,308 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Bombus ruderarius: iso. Cameron et al: 2007</t>
   </si>
   <si>
-    <t>The most threatening accepted population change estimate is -36.0% (discrete Extent of Occupancy), which exceeds the 30% decline required for qualification as VU under Criterion A. The EoO (224,800 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,564 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>The most threatening accepted population change estimate is -36.0% (discrete Extent of Occupancy), which exceeds the 30% decline required for qualification as VU under Criterion A. The EoO (224,800 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,564 km²) exceeds the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 This is one of four much declined bumblebees of the Thoracobombus sub genus (of which only one is common and widespread), the others being B. muscorum, B. sylvarum and B. humilis. There is a notable lack of data in last 5-year period which cannot be adequately explained (and does not show the same northward or southward contraction indicated for other declined bumblebees). There is always a risk of singular recorders not providing data, stopping recording etc, leading to shortfalls in data. However, a bumblebee experiencing a ~50% decline in records over a 10-year period is highly unusual. In some cases, identification can cause difficulties, but as bumblebees are undoubtedly the best recorded genus of bees the decline is likely to be accurate and the VU assessment warranted.</t>
   </si>
   <si>
     <t>Bombus ruderatus: iso. Cameron et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 11.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (85,200 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,164 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 11.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (85,200 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,164 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Bombus rupestris: iso. Cameron et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -22.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (195,350 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (4,092 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -22.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (195,350 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (4,092 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Bombus soroeensis: iso. Cameron et al: 2007</t>
   </si>
   <si>
-    <t>The most threatening accepted population change estimate is 9.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (295,550 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,704 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E._x000b__x000b_This taxon was moderated from LC to NT during peer review, during which there was a majority agreement that the taxon should be given a higher threat status, with multiple correspondents noting that they are personally finding it harder to find recently.
+    <t>The most threatening accepted population change estimate is 9.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (295,550 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,704 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+This taxon was moderated from LC to NT during peer review, during which there was a majority agreement that the taxon should be given a higher threat status, with multiple correspondents noting that they are personally finding it harder to find recently.
 Although this bumblebee remains reasonably frequent in the Highlands of Scotland, this previously widespread species has become a rare bee in England and Wales. It remains at Salisbury Plain though has decreased and there are only 13 other scattered records for it, with most of those for Wales and northeast England. Much the decline has been historic, but there are also modern declines, with the pattern of decline seemingly continuing.</t>
   </si>
   <si>
@@ -911,14 +918,14 @@
     <t>Bombus sylvarum: iso. Cameron et al: 2007</t>
   </si>
   <si>
-    <t>The most threatening accepted population change estimate is -8.0% (Bayesian occupancy), which does not exceed the 30% decline required for qualification as VU under Criterion A. Expert inference assessed this taxon as NT under 10 year decline and future projected decline, predominantly as a result of known development plans and pressures in extant habitat. The EoO (54,950 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and the AoO (1,020 km^2) is below the 2,000 km^2 VU threshold for criterion B2. There are &lt;= 5 locations, and continuing decline observed/projected in area, extent &amp; quality of habitat. For Criterion D2, the number of locations was less than or equal to 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>The most threatening accepted population change estimate is -8.0% (Bayesian occupancy), which does not exceed the 30% decline required for qualification as VU under Criterion A. Expert inference assessed this taxon as NT under 10 year decline and future projected decline, predominantly as a result of known development plans and pressures in extant habitat. The EoO (54,950 km²) exceeds the 20,000 km² VU threshold for criterion B1 and the AoO (1,020 km²) is below the 2,000 km² VU threshold for criterion B2. There are &lt;= 5 locations, and continuing decline observed/projected in area, extent &amp; quality of habitat. For Criterion D2, the number of locations was less than or equal to 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 Although not related to B. distinguendus, the decline of this species – historically widespread throughout GB – is partly similar, at least in terms of the the loss of open, flower-rich habitat, though with a different geographic retraction. There are likely to be other factors in the decline of this species as it has retracted to seven areas in the southeast and southwest of England and South Wales. Continuing development pressure in the Thames corridor is reducing continuity of habitat, and the taxon does not seem to persist in fragmented habitat. Development is considered to have had an overall detrimental effect. Sites in South Wales are under considerable development pressure, as are numerous other currently occupied brown field sites. Future habitat fragmentation is anticipated, weakening the population's stability.</t>
   </si>
   <si>
     <t>Bombus sylvestris: iso. Cameron et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -5.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (347,350 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (6,736 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -5.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (347,350 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (6,736 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -928,35 +935,35 @@
     <t>Bombus terrestris: iso. Cameron et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -8.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (521,100 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (25,868 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -8.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (521,100 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (25,868 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Bombus vestalis: iso. Cameron et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 0.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (249,750 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (12,772 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 0.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (249,750 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (12,772 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Ceratina cyanea: iso. Amiet et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 3.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (30,100 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (848 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 3.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (30,100 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (848 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Chelostoma campanularum: iso. Amiet et al: 2004</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 20.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (95,050 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,928 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 20.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (95,050 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,928 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Chelostoma florisomne: iso. Amiet et al: 2004</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 0.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (156,250 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,852 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 0.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (156,250 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,852 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -969,28 +976,29 @@
     <t>Coelioxys conoidea: iso. Amiet et al: 2004</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -8.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (136,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,028 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -8.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (136,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,028 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Coelioxys elongata: iso. Amiet et al: 2004</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 10.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (273,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,036 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 10.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (273,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,036 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Coelioxys inermis: iso. Amiet et al: 2004</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (169,200 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (820 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (169,200 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (820 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Coelioxys mandibularis: iso. Amiet et al: 2004</t>
   </si>
   <si>
-    <t>Insufficient data exists to arrive at a statistical result under Criterion A. Expert inference places the taxon at LC under criterion A. The EoO (69,350 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (172 km^2) is below the 500 km^2 EN threshold for criterion B2. There are assessed to be fewer or equal to 5 locations (EN) and there is continuing decline observed &amp; projected to the area/extent/quality of habitat. The end result is an assessment of EN under B. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E._x000b__x000b_During peer review, this taxon was moderated from EN to VU upon direct feedback from modern surveying of the know sites. This feedback specifically mentions an expansion of the known habitat which relaxes the pressure enough to move the number of sites from &lt;= 5 to &lt;=10 (VU).
+    <t>"Insufficient data exists to arrive at a statistical result under Criterion A. Expert inference places the taxon at LC under criterion A. The EoO (69,350 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (172 km²) is below the 500 km² EN threshold for criterion B2. There are assessed to be fewer or equal to 5 locations (EN) and there is continuing decline observed &amp; projected to the area/extent/quality of habitat. The end result is an assessment of EN under B. For Criterion D2, the number of locations are &lt;= 5 but there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+During peer review, this taxon was moderated from EN to VU upon direct feedback from modern surveying of the know sites. This feedback specifically mentions an expansion of the known habitat which relaxes the pressure enough to move the number of sites from &lt;= 5 to &lt;=10 (VU)."
 This solitary bee – parasitic on Megachile species – is restricted to the coast of Wales and southeast of England (where it is rare). Most of the population exists along relatively narrow strips of the fore dune zone on the west coast, which is at particular risk of damage during storm events.</t>
   </si>
   <si>
@@ -1010,21 +1018,21 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (153,100 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (668 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (153,100 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (668 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Colletes cunicularius: iso. Guichard: 1974</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 44.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (129,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (588 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 44.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (129,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (588 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Colletes daviesanus: iso. Guichard: 1974</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -13.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (260,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,556 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -13.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (260,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,556 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -1036,14 +1044,14 @@
 )</t>
   </si>
   <si>
-    <t>No statistical assessment was possible under Criterion A due insufficient data. Expert inference assessed this taxon as NT under future threat on the basis of vulnerability to a single Atlantic storm system, combined with significant potential for a negative response to a warming climate. The EoO (36,350 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and the AoO (340 km^2) is below the 500 km^2 EN threshold for criterion B2. There are fewer or equal to 10 locations, and continuing/projected decline in extent of occurrence, area of occupancy, number of locations/subpopulations, number of individuals, and area,extent &amp; quality of habitat. For Criterion D2, the number of locations was greater than 5, and there is a plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>No statistical assessment was possible under Criterion A due insufficient data. Expert inference assessed this taxon as NT under future threat on the basis of vulnerability to a single Atlantic storm system, combined with significant potential for a negative response to a warming climate. The EoO (36,350 km²) exceeds the 20,000 km² VU threshold for criterion B1 and the AoO (340 km²) is below the 500 km² EN threshold for criterion B2. There are fewer or equal to 10 locations, and continuing/projected decline in extent of occurrence, area of occupancy, number of locations/subpopulations, number of individuals, and area, extent &amp; quality of habitat. For Criterion D2, the number of locations was greater than 5, and there is a plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 This distinctly northern solitary bee only has modern GB records for Cumbria (where it haslways been very rare) and the west coast of Scotland (especially on the islands). The associated habitats are coastal sand dunes and, in the Western Isles, the machair (a maritime grassland typical of the Hebrides, comprising a rich flowering sward established on wind-blown shell sand). Most sea-level dune systems used are vulnerable to a single Atlantic storm system. Climate change predictions tend towards a higher intensity and frequency of Atlantic storm systems. These storms have significant potential to cause substantial damage to the existing population and available habitat. This taxon is montane in southern areas of Europe and may respond negatively to climate change.</t>
   </si>
   <si>
     <t>Colletes fodiens: iso. Guichard: 1974</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -4.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (207,700 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,964 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -4.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (207,700 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,964 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -1054,42 +1062,42 @@
 </t>
   </si>
   <si>
-    <t>The most threatening accepted population change estimate is 12.0% (Bayesian occupancy model), which does not exceed the 30% decline required for qualification as VU under Criterion A. Expert inference assessed this taxon at NT, on the combined basis of the future threat of sea level change and the fact that the assessment area contains the majority of the European population of this taxon. The EoO (77,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (648 km^2) is below the 2,000 km^2 VU threshold for criterion B2. and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>The most threatening accepted population change estimate is 12.0% (Bayesian occupancy model), which does not exceed the 30% decline required for qualification as VU under Criterion A. Expert inference assessed this taxon at NT, on the combined basis of the future threat of sea level change and the fact that the assessment area contains the majority of the European population of this taxon. The EoO (77,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (648 km²) is below the 2,000 km² VU threshold for criterion B2. and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 This is a coastal bee (associated strongly with Aster tripolium) with almost the entirety of records historically for the east coast (Humber) to Hampshire. Despite a very recent range expansion to Avon, Cheshire (Wirral) and South Cumbria, all sites are at sea level, with minimal ability to rapidly adapt with sea level rise and storm events. The magnitude of impact will depend on the sea level mitigation measures, particularly in managed retreats of sea wall defences, though the UK nonetheless holds most of the European population of this species.</t>
   </si>
   <si>
     <t>Colletes hederae: iso. Schmidt &amp; Westrich: 1993</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 11.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (203,550 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (8,760 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 11.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (203,550 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (8,760 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Colletes marginatus: iso. Guichard: 1974</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -4.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (143,450 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (472 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -4.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (143,450 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (472 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Colletes similis: iso. Guichard: 1974</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -4.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (157,900 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,728 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -4.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (157,900 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,728 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Colletes succinctus: iso. Guichard: 1974</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 5.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (438,200 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,580 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 5.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (438,200 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,580 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Dasypoda hirtipes: iso. Amiet et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 2.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (138,200 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,844 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 2.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (138,200 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,844 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -1113,21 +1121,21 @@
     <t>Epeolus cruciger: iso. Amiet et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -4.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (241,950 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,740 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -4.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (241,950 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,740 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Epeolus variegatus: iso. Amiet et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 8.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (176,050 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,088 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 8.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (176,050 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,088 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Eucera longicornis: iso. Amiet et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 24.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (99,500 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (796 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 24.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (99,500 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (796 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -1141,14 +1149,14 @@
     <t>Halictus confusus: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (28,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (160 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (28,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (160 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Halictus eurygnathus: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 12.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (750 km^2) is below the 5,000 km^2 EN threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (48 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 12.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (750 km²) is below the 5,000 km² EN threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (48 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -1165,7 +1173,7 @@
     <t>Halictus rubicundus: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 1.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (357,850 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (7,164 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 1.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (357,850 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (7,164 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -1178,7 +1186,7 @@
     <t>Halictus tumulorum: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 2.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (281,400 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (9,388 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 2.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (281,400 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (9,388 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -1192,7 +1200,7 @@
     <t>Heriades truncorum: iso. Amiet et al: 2004</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 67.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (70,300 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,064 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 67.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (70,300 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,064 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -1206,7 +1214,7 @@
     <t>Hoplitis claviventris: iso. Falk: 2015</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 25.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (154,200 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,672 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 25.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (154,200 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,672 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -1227,49 +1235,49 @@
 )</t>
   </si>
   <si>
-    <t>Insufficient data were available to assess this taxon under Criterion A. The EoO (44,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status. The AoO (68 km^2) is below the 500 km^2 EN threshold for criterion B2 but the number of locations is fewer than or equal to 10, which only satisfies the criteria for VU. Sufficient subcriteria for B2 were satisfied (continuing decline to: area of occupancy, extent of occupancy, area, extent and/or quality of habitat) to complete the assessment of this taxon as VU under B2 . For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>Insufficient data were available to assess this taxon under Criterion A. The EoO (44,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status. The AoO (68 km²) is below the 500 km² EN threshold for criterion B2 but the number of locations is fewer than or equal to 10, which only satisfies the criteria for VU. Sufficient subcriteria for B2 were satisfied (continuing decline to: area of occupancy, extent of occupancy, area, extent and/or quality of habitat) to complete the assessment of this taxon as VU under B2 . For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 This genus of small solitary bees are usually stem nesters, though H. annularis has also been reported as nesting in the ground. A species confined to coastal dunes and shingle, modern records extend along the English coast from East Anglia to Dorset, with modern records for South Wales. Inland records are very old – the species has had a complex peri-assessment nomenclatural change so old records may be suspect.</t>
   </si>
   <si>
     <t>Hylaeus brevicornis: iso. Amiet et al: 1999</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -1.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (242,250 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,796 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -1.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (242,250 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,796 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Hylaeus communis: iso. Amiet et al: 1999</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 14.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (231,900 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (7,672 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 14.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (231,900 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (7,672 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Hylaeus confusus: iso. Amiet et al: 1999</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 24.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (280,350 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,672 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 24.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (280,350 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,672 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Hylaeus cornutus: iso. Amiet et al: 1999</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -18.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (52,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,120 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -18.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (52,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,120 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Hylaeus dilatatus: iso. Notton and Dathe: 2008</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 1.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (90,550 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,472 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 1.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (90,550 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,472 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Hylaeus hyalinatus: iso. Amiet et al: 1999</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -4.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (234,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,568 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -4.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (234,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,568 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -1283,14 +1291,14 @@
     <t>Hylaeus pectoralis: iso. Amiet et al: 1999</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -29.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (52,700 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (568 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -29.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (52,700 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (568 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Hylaeus pictipes: iso. Amiet et al: 1999</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 19.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (76,650 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (368 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 19.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (76,650 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (368 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -1304,56 +1312,57 @@
     <t>Hylaeus signatus: iso. Amiet et al: 1999</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -9.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (132,500 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,744 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -9.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (132,500 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,744 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lasioglossum albipes: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 14.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (403,000 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (6,752 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 14.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (403,000 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (6,752 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lasioglossum angusticeps: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t>No statistical methods were supportable under Criterion A due to low data volume. Expert inference assesses this taxon as LC based on suspected population change of the part 10 years. The EoO (3,350 km^2) is below the 5,000 km^2 EN threshold for criterion B1 and the AoO (48 km^2) is below the 500 km^2 EN threshold for criterion B2. Whilst there are 5 or fewer locations (EN), no further threat subcriteria could be established for this taxon, leaving the assessment under B as LC. For Criterion D2, whilst the number of locations was fewer or equal to 5, there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E._x000b__x000b_This taxon has been moderated to NT based on a combination of its status in the European Red List of NT and widespread yet highly localised threat to quality of habitat due to leaching or slumping of substrate above nesting aggregates. Peer review unanimously agreed upon an assessment of at least NT for this species.
+    <t>No statistical methods were supportable under Criterion A due to low data volume. Expert inference assesses this taxon as LC based on suspected population change of the part 10 years. The EoO (3,350 km²) is below the 5,000 km² EN threshold for criterion B1 and the AoO (48 km²) is below the 500 km² EN threshold for criterion B2. Whilst there are 5 or fewer locations (EN), no further threat subcriteria could be established for this taxon, leaving the assessment under B as LC. For Criterion D2, whilst the number of locations was fewer or equal to 5, there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+This taxon has been moderated to NT based on a combination of its status in the European Red List of NT and widespread yet highly localised threat to quality of habitat due to leaching or slumping of substrate above nesting aggregates. Peer review unanimously agreed upon an assessment of at least NT for this species.
 This solitary bee has a restricted coastal distribution, recorded from east Devon, Dorset and the Isle of Wight. The taxon is also NT in the European Red List. In addition, the cliff habitat has the potential for eutrophication due to leaching or slumping of substrate above nesting aggregations which could lead to localised losses.</t>
   </si>
   <si>
     <t>Lasioglossum brevicorne: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (72,900 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (444 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (72,900 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (444 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lasioglossum calceatum: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -8.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (385,100 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (12,976 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -8.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (385,100 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (12,976 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lasioglossum cupromicans: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -15.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (266,650 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,432 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -15.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (266,650 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,432 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lasioglossum fratellum: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -12.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (302,350 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,108 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -12.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (302,350 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,108 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lasioglossum fulvicorne: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 11.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (246,950 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,452 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 11.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (246,950 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,452 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -1367,35 +1376,35 @@
     <t>Lasioglossum laevigatum: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 15.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (123,800 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,436 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 15.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (123,800 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,436 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lasioglossum laticeps: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (1,600 km^2) is below the 5,000 km^2 EN threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (60 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was less than or equal to 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (1,600 km²) is below the 5,000 km² EN threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (60 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was less than or equal to 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lasioglossum lativentre: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 14.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (162,250 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,368 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 14.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (162,250 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,368 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lasioglossum leucopus: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 4.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (376,500 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (5,248 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 4.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (376,500 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (5,248 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lasioglossum leucozonium: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -4.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (237,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (7,308 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -4.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (237,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (7,308 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -1405,7 +1414,7 @@
     <t>Lasioglossum malachurum: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 14.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (104,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (5,472 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 14.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (104,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (5,472 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -1415,14 +1424,14 @@
     <t>Lasioglossum minutissimum: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -9.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (128,350 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,272 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -9.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (128,350 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,272 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lasioglossum morio: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 1.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (252,300 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (9,068 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 1.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (252,300 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (9,068 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -1435,77 +1444,77 @@
 </t>
   </si>
   <si>
-    <t>The most threatening accepted population change estimate is 32.0% (raw record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. However, expert inference assesses this taxon at NT based on suspected decline from the south of England due to climate changes. These changes are also expected to continue in the future, and were unanimously agreed upon during peer review. The EoO (307,350 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (632 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>The most threatening accepted population change estimate is 32.0% (raw record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. However, expert inference assesses this taxon at NT based on suspected decline from the south of England due to climate changes. These changes are also expected to continue in the future, and were unanimously agreed upon during peer review. The EoO (307,350 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (632 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 Historically well recorded and widely distributed in England (especially southern England from Cornwall to Kent, with other sites in Wales and Isles of Scilly), there has been a substantial decline in records of this solitary bee in the past few decades, especially in the southeast of England where it now appears to be rare. Modern records for northeast England and Scotland suggest the species is reacting to climactic changes.</t>
   </si>
   <si>
     <t>Lasioglossum parvulum: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -14.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (173,000 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,108 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -14.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (173,000 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,108 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lasioglossum pauperatum: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -2.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (36,400 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (616 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -2.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (36,400 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (616 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lasioglossum pauxillum: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 14.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (122,450 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (4,676 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 14.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (122,450 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (4,676 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lasioglossum prasinum: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 13.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (70,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (560 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 13.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (70,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (560 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lasioglossum punctatissimum: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 12.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (243,850 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,744 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 12.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (243,850 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,744 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lasioglossum puncticolle: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 22.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (73,200 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,312 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 22.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (73,200 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,312 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lasioglossum quadrinotatum: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 14.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (81,550 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (468 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 14.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (81,550 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (468 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lasioglossum rufitarse: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -8.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (243,450 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,244 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -8.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (243,450 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,244 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lasioglossum semilucens: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (18,100 km^2) is below the 20,000 km^2 VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (104 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (18,100 km²) is below the 20,000 km² VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (104 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lasioglossum sexnotatum: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 26.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (3,500 km^2) is below the 5,000 km^2 EN threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (144 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was less than or equal to 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 26.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (3,500 km²) is below the 5,000 km² EN threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (144 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was less than or equal to 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -1519,49 +1528,49 @@
     <t>Lasioglossum smeathmanellum: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -6.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (253,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,780 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -6.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (253,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,780 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lasioglossum villosulum: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -17.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (278,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (7,416 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -17.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (278,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (7,416 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lasioglossum xanthopus: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 19.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (79,400 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (704 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 19.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (79,400 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (704 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lasioglossum zonulum: iso. Amiet et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 15.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (103,800 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,216 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 15.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (103,800 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,216 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Macropis europaea: iso. Amiet et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 30.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (56,450 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (744 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 30.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (56,450 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (744 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Megachile centuncularis: iso. Perkins: 1925</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 1.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (325,450 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,736 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 1.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (325,450 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,736 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Megachile circumcincta: iso. Perkins: 1925</t>
   </si>
   <si>
-    <t>The are insufficient data to perform statistical assessment under Criterion A. Expert inference assesses this taxon as VU (&gt;= 30% decline over 10 years) .The EoO (264,450 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO was not considered statistically reliable due to extremely low volume of data. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>The are insufficient data to perform statistical assessment under Criterion A. Expert inference assesses this taxon as VU (&gt;= 30% decline over 10 years) .The EoO (264,450 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO was not considered statistically reliable due to extremely low volume of data. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 Historically this was a widespread if localised species, found throughout GB. It has heavily declined in most of southern and central England, where it was found on lowland heaths. The last record for Surrey was 1973 and the last record for Surrey was 1974 - overall, suspected &gt;80% decline in observation in southeastern England. Although populations on the Scottish and Welsh coasts seem more stable, it is much declined on the coasts of northwest England (Cheshire, Lancashire and Cumbria).</t>
   </si>
   <si>
@@ -1582,42 +1591,42 @@
     <t>Megachile leachella: iso. Scheuchl: 2006</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 14.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (163,500 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,452 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 14.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (163,500 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,452 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Megachile ligniseca: iso. Perkins: 1925</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 5.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (182,500 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,192 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 5.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (182,500 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,192 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Megachile maritima: iso. Perkins: 1925</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 6.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (214,800 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,596 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 6.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (214,800 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,596 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Megachile versicolor: iso. Perkins: 1925</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -1.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (238,350 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,400 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -1.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (238,350 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,400 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Megachile willughbiella: iso. Perkins: 1925</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -5.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (333,650 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (5,028 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -5.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (333,650 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (5,028 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Melecta albifrons: iso. Amiet et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 27.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (156,450 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,756 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 27.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (156,450 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,756 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -1631,28 +1640,29 @@
     <t>Melitta dimidiata: iso. Amiet et al: 2007</t>
   </si>
   <si>
-    <t>The most threatening accepted population change estimate is 36.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (1,050 km^2) exceeds the 5,000 km^2 EN threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (96 km^2) is below the 500 km^2 EN threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E._x000b__x000b_This taxon has been moderated to NT due to its status of NT on the European Red List and the strict location requirement. Military training sites may also see distinct changes to flora and disturbance regimes under correct global conditions.
+    <t>The most threatening accepted population change estimate is 36.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (1,050 km²) exceeds the 5,000 km² EN threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (96 km²) is below the 500 km² EN threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+This taxon has been moderated to NT due to its status of NT on the European Red List and the strict location requirement. Military training sites may also see distinct changes to flora and disturbance regimes under correct global conditions.
 Modern records are confined to scattered sites on the three principal Army Ranges on Salisbury Plain. This solitary bee is monolectic (specifically associated) with Onobrychis viciifolia. Although the distribution of the associated plant – boosted considerably by introduced agricultural cultivars - is quite widespread in England (especially on chalk grassland), the species does not forage from cultivated varieties. The taxon is also NT on the European Red List.</t>
   </si>
   <si>
     <t>Melitta haemorrhoidalis: iso. Amiet et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 30.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (150,350 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (864 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 30.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (150,350 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (864 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Melitta leporina: iso. Amiet et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -1.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (155,500 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,728 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -1.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (155,500 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,728 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Melitta tricincta: iso. Amiet et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -7.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (92,550 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,384 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -7.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (92,550 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,384 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -1666,14 +1676,15 @@
     <t>Nomada argentata: iso. Amiet et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (39,700 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (128 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (39,700 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (128 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Nomada armata: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t>No statistical assessment was possible under Criterion A due insufficient data. Expert inference assessed this taxon as LC. The EoO (8,950 km^2) is below the 20,000 km^2 VU threshold for criterion B1 and the AoO (84 km^2) is below the 500 km^2 EN threshold for criterion B2. However, the taxon inhabits greater than 10 sites and so does not qualify for a threat status under B. For Criterion D2, the number of locations was greater than 10, and there is no plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E._x000b__x000b_This taxon was moderated from LC to NT during peer review by a strong majority of responses.
+    <t>No statistical assessment was possible under Criterion A due insufficient data. Expert inference assessed this taxon as LC. The EoO (8,950 km²) is below the 20,000 km² VU threshold for criterion B1 and the AoO (84 km²) is below the 500 km² EN threshold for criterion B2. However, the taxon inhabits greater than 10 sites and so does not qualify for a threat status under B. For Criterion D2, the number of locations was greater than 10, and there is no plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+This taxon was moderated from LC to NT during peer review by a strong majority of responses.
 This parasitic solitary bee is associated with one of the larger bees which forages from “scabious” plants – Andrena hattorfiana.  Although considerably less common than the host species, the host has become more common, and populations of N. armata appear to be joining up. Despite no evidence of heavy decline, there have been less observations of the species amongst specialists and moderation has been agreed on a status of NT.</t>
   </si>
   <si>
@@ -1712,7 +1723,7 @@
     <t>Nomada fabriciana: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 8.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (290,950 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (6,548 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 8.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (290,950 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (6,548 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -1726,35 +1737,35 @@
     <t>Nomada ferruginata: iso. Amiet et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 33.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (86,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (468 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 33.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (86,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (468 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Nomada flava: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 5.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (219,300 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (9,260 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 5.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (219,300 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (9,260 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Nomada flavoguttata: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 15.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (334,050 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (6,680 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 15.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (334,050 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (6,680 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Nomada flavopicta: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 42.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (182,000 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,236 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 42.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (182,000 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,236 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Nomada fucata: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 18.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (161,100 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (4,184 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 18.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (161,100 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (4,184 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -1777,7 +1788,7 @@
     <t>Nomada goodeniana: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 5.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (329,650 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (8,676 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 5.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (329,650 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (8,676 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -1800,28 +1811,29 @@
     <t>Nomada lathburiana: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 13.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (180,550 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,456 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 13.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (180,550 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,456 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Nomada leucophthalma: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 0.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (320,800 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,848 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 0.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (320,800 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,848 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Nomada marshamella: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 15.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (363,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (6,608 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 15.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (363,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (6,608 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Nomada obtusifrons: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t>No assessment was possible under Criteria A , B, or D due insufficient data. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E._x000b__x000b_This taxon was moderated from DD to NT on the basis of the status of its host taxa  (*Andrena tarsata*: iso. Perkins: 1919 and *Andrena coitana*: iso. Perkins: 1919) being assessed at NT. As per the rulings made for this assessment, no taxon may be less threatened that the least-threatened dependency.
+    <t>No assessment was possible under Criteria A , B, or D due insufficient data. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+This taxon was moderated from DD to NT on the basis of the status of its host taxa  (*Andrena tarsata*: iso. Perkins: 1919 and *Andrena coitana*: iso. Perkins: 1919) being assessed at NT. As per the rulings made for this assessment, no taxon may be less threatened that the least-threatened dependency.
 Although historically widely distributed throughout Britain and Ireland, though generally scarce and very local, this parasitic bee has declined steadily over the twentieth century. Modern records are restricted to the west (England and Wales) and Scotland, and the NT assessment matches that for the host, Andrena coitana.</t>
   </si>
   <si>
@@ -1838,21 +1850,22 @@
     <t>Nomada roberjeotiana: iso. Amiet et al: 2007</t>
   </si>
   <si>
-    <t>No assessment was possible under Criteria A , B, or D due insufficient data. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E._x000b__x000b_This taxon was moderated from DD to NT on the basis of the status of its sole host (*Andrena tarsata*: iso. Perkins: 1919) being assessed at NT. As per the rulings made for this assessment, no taxon may be less threatened that the least-threatened dependency.
+    <t>No assessment was possible under Criteria A , B, or D due insufficient data. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+This taxon was moderated from DD to NT on the basis of the status of its sole host (*Andrena tarsata*: iso. Perkins: 1919) being assessed at NT. As per the rulings made for this assessment, no taxon may be less threatened that the least-threatened dependency.
 This parasitic bee – associated strictly with Andrena tarsata – has always been rarely recorded and although it appears to be much scarcer than its host, it is possibly under-recorded in certain areas. The threats to the taxon mirror those that apply to the host which is also assessed as NT.</t>
   </si>
   <si>
     <t>Nomada ruficornis: iso. Amiet et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 4.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (320,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (4,896 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 4.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (320,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (4,896 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Nomada rufipes: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -3.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (273,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,828 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -3.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (273,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,828 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -1867,21 +1880,21 @@
 )</t>
   </si>
   <si>
-    <t>The are insufficient data to statistically assess this taxon under Criterion A. Expert inference assessed this taxon as LC under Criterion A. The EoO (100 km^2) is below the 5,000 km^2 EN threshold for criterion B1 and the AoO (8 km^2) is below the 10 km^2 CR threshold for criterion B2. There is one location, and continuing decline observed or projected in the area of occupancy, extent of occupancy, extent/area/quality of habitat, and number of individuals. For Criterion D2, the number of locations was less than 5 and there are plausible threats that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>The are insufficient data to statistically assess this taxon under Criterion A. Expert inference assessed this taxon as LC under Criterion A. The EoO (100 km²) is below the 5,000 km² EN threshold for criterion B1 and the AoO (8 km²) is below the 10 km² CR threshold for criterion B2. There is one location, and continuing decline observed or projected in the area of occupancy, extent of occupancy, extent/area/quality of habitat, and number of individuals. For Criterion D2, the number of locations was less than 5 and there are plausible threats that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 This is a parasitic bee which targets the Eucera genus, of which only 1 species – E. longicornis - is extant and although very localised and fragmented is assessed as LC. In contrast, this species - formerly recorded from several counties in southern England – is now restricted to one site in South Devon. It is currently assumed to be isolated due to a combination of host availability fragmentation, and the small size of the only known parasitised colony. The colony is unable to reach a size where random chance reaches a point where dispersal results in the finding of a new host colony. In addition, the main part of this taxon's available host population is close to sea level. Increased wave action and sea level rise will degrade this area.</t>
   </si>
   <si>
     <t>Nomada sheppardana: iso. Amiet et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 31.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (144,050 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (756 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 31.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (144,050 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (756 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Nomada signata: iso. Perkins: 1919</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 7.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (101,850 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (360 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 7.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (101,850 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (360 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -1891,7 +1904,7 @@
     <t>Nomada striata: iso. Amiet et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 13.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (260,900 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,360 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 13.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (260,900 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,360 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -1916,35 +1929,35 @@
     <t>Nomada zonata: iso. Amiet et al: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 1184.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (55,250 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (452 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 1184.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (55,250 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (452 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Osmia aurulenta: iso. Amiet et al: 2004</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 3.0% (Bayesian upper 95% CI), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (176,000 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,380 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 3.0% (Bayesian upper 95% CI), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (176,000 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,380 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Osmia bicolor: iso. Amiet et al: 2004</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -11.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (95,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,292 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -11.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (95,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,292 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Osmia bicornis: iso. Amiet et al: 2004</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -10.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (296,300 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (9,972 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -10.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (296,300 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (9,972 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Osmia caerulescens: iso. Amiet et al: 2004</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 5.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (241,900 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,372 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 5.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (241,900 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,372 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -1965,14 +1978,15 @@
 </t>
   </si>
   <si>
-    <t>There are insufficient data to statistically assess this taxon under Criterion A, B, or D. Expert inference assess this taxon as NT under the basis of future threat from climate change. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E._x000b__x000b_This taxon has been moderated from VU to EN on the basis of peri and post assessment repeat, targeting survey efforts failing to provide as much data as was expected under higher scrutiny. Existing locations were assessed to be continuing to decline in suitability, with no significant change from the previous assessment, leading to further threat of habitat loss.
+    <t>There are insufficient data to statistically assess this taxon under Criterion A, B, or D. Expert inference assess this taxon as NT under the basis of future threat from climate change. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+This taxon has been moderated from VU to EN on the basis of peri and post assessment repeat, targeting survey efforts failing to provide as much data as was expected under higher scrutiny. Existing locations were assessed to be continuing to decline in suitability, with no significant change from the previous assessment, leading to further threat of habitat loss.
 This megachilid bee is very rare, being confined to the central Scottish Highlands on base-rich pasture with legumes and woodland edge habitat with Bugle and Bilberry. This taxon requires specific targeted survey effort. No such survey has happened in the 10-year assessment period. Due to the paucity of data and lack of knowledge, it was not possible to place this taxon in any higher threat status than VU. Taking into account wider knowledge, which has no place to be captured under the available rules, the threat status to this taxon should be much higher. Even when subjected to targeted survey effort, records have been scarce. Existing locations were at risk of conversion to commercial pine forest or subject to inappropriate grazing. The pressures from the last targeted work are considered to have been maintained. This species is therefore considered to be under far higher threat than can be captured within the Red List methodology.</t>
   </si>
   <si>
     <t>Osmia leaiana: iso. Amiet et al: 2004</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 14.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (204,000 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,916 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 14.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (204,000 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,916 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -1989,28 +2003,28 @@
     <t>Osmia parietina: iso. Amiet et al: 2004</t>
   </si>
   <si>
-    <t xml:space="preserve">The are insufficient data to perform statistical assessment under Criterion A. Expert inference assessed this taxon as NT (decline does not exceed 30%, but there is evidence of concerning decline). The EoO (71,950 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (132 km^2) is below the 500 km^2 EN threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The are insufficient data to perform statistical assessment under Criterion A. Expert inference assessed this taxon as NT (decline does not exceed 30%, but there is evidence of concerning decline). The EoO (71,950 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (132 km²) is below the 500 km² EN threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 This aerial nesting bee (often in stone crevices and walls) has a northwest bias and is restricted to the north and west of GB. Modern records are known from western and northern Wales, north-western England and southern and northern Scotland. It is strictly associated with legumes, usually on base-rich habitat (e.g. limestone grassland) with some shelter from trees / scrub. Records have declined in the last ten years, despite targeted, repeat surveys supporting an NT status. </t>
   </si>
   <si>
     <t>Osmia pilicornis: iso. Amiet et al: 2004</t>
   </si>
   <si>
-    <t xml:space="preserve">There are insufficient data to perform statistical assessment under Criterion A. Expert inference assessed this taxon as EN (minimum 50% population decline over the entire assessed region). The EoO (23,000 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status. The AoO 140 km^2) is below the 500 km^2 EN threshold for criterion B2. There are assessed to be fewer or equal to 10 locations (VU) and there is continuing decline observed &amp; projected to the area, extent/quality of habitat. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">There are insufficient data to perform statistical assessment under Criterion A. Expert inference assessed this taxon as EN (minimum 50% population decline over the entire assessed region). The EoO (23,000 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status. The AoO 140 km²) is below the 500 km² EN threshold for criterion B2. There are assessed to be fewer or equal to 10 locations (VU) and there is continuing decline observed &amp; projected to the area, extent/quality of habitat. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 This megachilid bee nest in dead wood, often in open woodland (especially on chalky soils). Lack of traditional coppice management and over-zealous woodland management has reduced suitable habitat, and the range of the species has retracted substantially from numerous sites south of the Severn – Wash line to very few sites in Kent and Sussex during the assessment period. The taxon has been subjected to targeted survey effort yet cannot be re-found on many previous sites. Forestry management practices used to provide a range of suitable nesting habitats, but these practices have changed. Deadwood and stumps are now routinely destroyed via mechanical management, removing nesting opportunities. </t>
   </si>
   <si>
     <t>Osmia spinulosa: iso. Amiet et al: 2004</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 6.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (129,250 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,076 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 6.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (129,250 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,076 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Osmia uncinata: iso. Else &amp; Edwards: 1996</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (7,500 km^2) is below the 20,000 km^2 VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (144 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (7,500 km²) is below the 20,000 km² VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (144 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -2021,21 +2035,22 @@
 )</t>
   </si>
   <si>
-    <t>There is insufficient data to assess this taxon under Criterion A - likely due to the rarity of the taxon more than a lack of sampling power. The EoO (6,100 km^2) is below the 20,000 km^2 VU threshold for criterion B1 and the AoO (20 km^2) is below the 500 km^2 EN threshold for criterion B2. There are assessed to be fewer or equal to 5 locations (VU) and there is continuing decline observed &amp; projected to area of occupancy, extent of occupancy, the area/ extent/quality of habitat, and number of locations and subpopulations. For Criterion D2, the number of locations was fewer or equal to 5, and there is a plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E._x000b__x000b_Following assessment, this taxon was subject to significant targeted survey efforts to attempt to re-find the Isle of Wight population. This population's existence was the deciding factor between EN and CR during assessment. The population could not be re-found over multiple visits and review of specimens, with the assessment that this subpopulation is likely extinct. Accordingly, this taxon has been elevated to CR.
+    <t>There is insufficient data to assess this taxon under Criterion A - likely due to the rarity of the taxon more than a lack of sampling power. The EoO (6,100 km²) is below the 20,000 km² VU threshold for criterion B1 and the AoO (20 km²) is below the 500 km² EN threshold for criterion B2. There are assessed to be fewer or equal to 5 locations (VU) and there is continuing decline observed &amp; projected to area of occupancy, extent of occupancy, the area/ extent/quality of habitat, and number of locations and subpopulations. For Criterion D2, the number of locations was fewer or equal to 5, and there is a plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+Following assessment, this taxon was subject to significant targeted survey efforts to attempt to re-find the Isle of Wight population. This population's existence was the deciding factor between EN and CR during assessment. The population could not be re-found over multiple visits and review of specimens, with the assessment that this subpopulation is likely extinct. Accordingly, this taxon has been elevated to CR.
 Historically (pre-1950’s) this distinctive megachilid bee was recorded from 28 scattered localities from the south coast of England to Tyneside. Following the loss of the Isle of Wight colony in the early assessment period, there remains a singular existing colony in North Wales which is at risk of localised storm surges damaging the nesting site. Pastures above the nesting location cliffs are being improved, resulting in enrichment of the area and reducing forage resource. These measures result in the taxon reaching EN status. The Isle of Wight population cannot be found, reducing the known viable locations to one. Farming practices place additional pressure upon the remaining known site, specifically regarding availability of suitable floral resource. For these reasons, this taxon is elevated to CR.</t>
   </si>
   <si>
     <t>Panurgus banksianus: iso. Amiet et al: 2010</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -6.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (129,950 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,136 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -6.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (129,950 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,136 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Panurgus calcaratus: iso. Amiet et al: 2010</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -17.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (113,000 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,272 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -17.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (113,000 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,272 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -2056,14 +2071,14 @@
     <t>Sphecodes crassus: iso. Amiet et al: 1999</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 35.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (249,850 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,784 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 35.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (249,850 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,784 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Sphecodes ephippius: iso. Amiet et al: 1999</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 19.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (219,850 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (7,032 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 19.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (219,850 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (7,032 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -2073,21 +2088,21 @@
     <t>Sphecodes geoffrellus: iso. Amiet et al: 1999</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 5.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (362,850 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (5,068 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 5.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (362,850 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (5,068 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Sphecodes gibbus: iso. Amiet et al: 1999</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 15.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (267,450 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,488 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 15.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (267,450 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,488 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Sphecodes hyalinatus: iso. Amiet et al: 1999</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 7.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (253,650 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,296 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 7.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (253,650 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,296 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -2100,7 +2115,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (78,950 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, the AoO was not accepted. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (78,950 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, the AoO was not accepted. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -2110,70 +2125,70 @@
     <t>Sphecodes miniatus: iso. Amiet et al: 1999</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (40,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (456 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (40,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (456 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Sphecodes monilicornis: iso. Amiet et al: 1999</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 7.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (313,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (5,828 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 7.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (313,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (5,828 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Sphecodes niger: iso. Amiet et al: 1999</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 16.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (110,250 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,436 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 16.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (110,250 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,436 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Sphecodes pellucidus: iso. Amiet et al: 1999</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -9.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (232,650 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,412 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -9.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (232,650 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,412 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Sphecodes puncticeps: iso. Amiet et al: 1999</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 1.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (179,450 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,452 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 1.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (179,450 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,452 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Sphecodes reticulatus: iso. Amiet et al: 1999</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 19.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (129,200 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,360 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 19.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (129,200 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,360 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Sphecodes rubicundus: iso. Amiet et al: 1999</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 100.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (86,200 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (604 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 100.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (86,200 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (604 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Sphecodes scabricollis: iso. Amiet et al: 1999</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 41.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (42,450 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (296 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 41.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (42,450 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (296 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Sphecodes spinulosus: iso. Amiet et al: 1999</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (68,100 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (152 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (68,100 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (152 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Stelis breviuscula: iso. Amiet et al: 2004</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 50.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (19,700 km^2) is below the 20,000 km^2 VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (296 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 50.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (19,700 km²) is below the 20,000 km² VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (296 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -2183,21 +2198,21 @@
     <t>Stelis ornatula: iso. Amiet et al: 2004</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (106,700 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (340 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (106,700 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (340 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Stelis phaeoptera: iso. Amiet et al: 2004</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 67.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (112,250 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (216 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 67.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (112,250 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (216 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Stelis punctulatissima: iso. Amiet et al: 2004</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (181,450 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (428 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (181,450 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (428 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -2217,21 +2232,21 @@
     <t>Argogorytes fargeii: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 4.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (85,950 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (232 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 4.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (85,950 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (232 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Argogorytes mystaceus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 1.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (303,650 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,440 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 1.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (303,650 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,440 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Astata boops: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 11.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (103,500 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,124 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 11.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (103,500 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,124 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -2241,35 +2256,36 @@
     <t>Cerceris arenaria: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -21.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (170,700 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,364 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -21.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (170,700 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,364 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Cerceris quadricincta: iso. Richards: 1980</t>
   </si>
   <si>
-    <t>The most threatening accepted population change estimate is 2% (discrete Extent of Occupancy), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (5,400 km^2) is below the 20,000 km^2 VU threshold for criterion B1 and the AoO (128 km^2) is below the 500 km^2 EN threshold for criterion B2. The number of locations is, however, greater than 10 and there is no fragmentation under Red List terminology, preventing the assignment of any threat status under B. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E._x000b__x000b_This taxon was moderated from LC to NT during peer review, with the majority of correspondents believing that this taxon should really be assessed as VU. However, Red List guidance prohibits moderation by multiple levels, leaving NT as the highest possible threat status at this time.
+    <t>The most threatening accepted population change estimate is 2% (discrete Extent of Occupancy), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (5,400 km²) is below the 20,000 km² VU threshold for criterion B1 and the AoO (128 km²) is below the 500 km² EN threshold for criterion B2. The number of locations is, however, greater than 10 and there is no fragmentation under Red List terminology, preventing the assignment of any threat status under B. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+This taxon was moderated from LC to NT during peer review, with the majority of correspondents believing that this taxon should really be assessed as VU. However, Red List guidance prohibits moderation by multiple levels, leaving NT as the highest possible threat status at this time.
 Although given a provisional LC status in line with the statistical analyses, moderation has suggested that due to the small population area and some decline, NT would be more appropriate for this ground nesting, weevil hunting wasp.</t>
   </si>
   <si>
     <t>Cerceris quinquefasciata: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 32.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (45,950 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (968 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 32.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (45,950 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (968 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Cerceris ruficornis: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 31.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (91,350 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (664 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 31.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (91,350 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (664 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Cerceris rybyensis: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 15.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (143,550 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (5,436 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 15.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (143,550 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (5,436 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -2283,126 +2299,126 @@
     <t>Crabro cribrarius: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -22.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (292,450 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,872 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -22.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (292,450 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,872 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Crabro peltarius: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -12.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (250,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,464 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -12.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (250,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,464 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Crabro scutellatus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -23.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (36,200 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (484 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -23.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (36,200 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (484 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Crossocerus annulipes: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 15.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (247,050 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,656 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 15.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (247,050 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,656 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Crossocerus binotatus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 35.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (155,000 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (416 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 35.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (155,000 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (416 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Crossocerus capitosus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 65.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (168,950 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (648 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 65.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (168,950 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (648 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Crossocerus cetratus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 0.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (182,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,004 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 0.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (182,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,004 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Crossocerus congener: iso. de Beaumont: 1964</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (9,850 km^2) is below the 20,000 km^2 VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (64 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (9,850 km²) is below the 20,000 km² VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (64 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Crossocerus dimidiatus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -13.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (314,400 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,072 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -13.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (314,400 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,072 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Crossocerus distinguendus: iso. de Beaumont: 1964</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 13.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (135,500 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,184 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 13.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (135,500 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,184 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Crossocerus elongatulus: iso. Bitsch &amp; Leclercq: 1993</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -22.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (290,750 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,808 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -22.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (290,750 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,808 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Crossocerus exiguus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (8,150 km^2) is below the 20,000 km^2 VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (76 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (8,150 km²) is below the 20,000 km² VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (76 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Crossocerus leucostoma: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (60,650 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (112 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (60,650 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (112 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Crossocerus megacephalus: iso. Bitsch &amp; Leclercq: 1993</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 13.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (320,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,320 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 13.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (320,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,320 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Crossocerus nigritus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 20.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (124,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,184 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 20.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (124,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,184 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Crossocerus ovalis: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -20.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (178,900 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,760 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -20.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (178,900 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,760 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Crossocerus palmipes: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (72,450 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (108 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (72,450 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (108 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Crossocerus podagricus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -14.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (223,650 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (4,044 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -14.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (223,650 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (4,044 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -2416,21 +2432,21 @@
     <t>Crossocerus quadrimaculatus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 6.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (252,100 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,440 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 6.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (252,100 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,440 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Crossocerus styrius: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (103,350 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (224 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (103,350 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (224 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Crossocerus tarsatus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -29.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (321,000 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,104 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -29.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (321,000 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,104 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -2442,35 +2458,35 @@
 )</t>
   </si>
   <si>
-    <t>No assessment was possible under Criterion A due insufficient data. The EoO (15, 800 km^2) is below the 20,000 km^2 VU threshold for criterion B1 and the AoO (40 km^2) is below the 500 km^2 EN threshold for criterion B2. There are fewer or equal to 5 locations (VU), and there is observed or projected decline in the area,extent &amp; quality of habitat. For Criterion D2, the number of locations was fewer or equal to 5, but there is no plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>No assessment was possible under Criterion A due insufficient data. The EoO (15, 800 km²) is below the 20,000 km² VU threshold for criterion B1 and the AoO (40 km²) is below the 500 km² EN threshold for criterion B2. There are fewer or equal to 5 locations (VU), and there is observed or projected decline in the area, extent &amp; quality of habitat. For Criterion D2, the number of locations was fewer or equal to 5, but there is no plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 This dead wood nesting, cranefly hunting solitary wasp was historically scarce – recorded sparingly across southern England, from Dorset to North Lincolnshire – though with modern records restricted to South Hampshire, Surrey and South Wales. Although removal of standing dead wood is undoubtedly having a negative impact on this taxon there are likely to be other (yet unknown) factors involved in it’s decline.</t>
   </si>
   <si>
     <t>Crossocerus varus: iso. Bitsch &amp; Leclercq: 1993</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -19.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (340,900 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,336 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -19.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (340,900 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,336 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Crossocerus walkeri: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 357.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (142,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (176 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 357.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (142,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (176 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Crossocerus wesmaeli: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -14.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (168,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,560 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -14.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (168,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,560 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Didineis lunicornis: iso. Bitsch et al: 1997</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (55,050 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (308 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (55,050 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (308 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -2484,133 +2500,134 @@
     <t>Diodontus insidiosus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -15.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (59,000 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (364 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -15.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (59,000 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (364 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Diodontus luperus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 120.0% (Bayesian upper 95% CI), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (120,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (840 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 120.0% (Bayesian upper 95% CI), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (120,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (840 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Diodontus minutus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 29.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (146,650 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,400 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 29.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (146,650 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,400 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Diodontus tristis: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 38.0% (Bayesian upper 95% CI), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (192,650 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (632 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 38.0% (Bayesian upper 95% CI), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (192,650 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (632 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Dryudella pinguis: iso. Bitsch et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -24.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (237,400 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (784 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -24.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (237,400 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (784 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Ectemnius borealis: iso. Richards: 1980</t>
   </si>
   <si>
-    <t>The are insufficient data to statistically assess this taxon under Criterion A. Expert inference assessed this taxon as LC in the absence of specific decline metrics. The EoO (2,200 km^2) is below the 20,000 km^2 VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (72 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E._x000b__x000b_This taxon was moderated to NT during peer review where the majority of respondants agreed that this taxon had become far harder to find during field survey.
+    <t>The are insufficient data to statistically assess this taxon under Criterion A. Expert inference assessed this taxon as LC in the absence of specific decline metrics. The EoO (2,200 km²) is below the 20,000 km² VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (72 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+This taxon was moderated to NT during peer review where the majority of respondants agreed that this taxon had become far harder to find during field survey.
 The most restricted species of this genus of solitary wasps (which often nest in dead wood or stems and hunt Diptera); discovered in 1972 and known only from east Hampshire (north to the Surrey border) and West Sussex. No threat could be established to warrant the use of threat criteria under assessment. However, expert inference suggests a level of decline that matches their experiences.</t>
   </si>
   <si>
     <t>Ectemnius cavifrons: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -16.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (265,050 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,624 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -16.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (265,050 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,624 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Ectemnius cephalotes: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 5.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (254,400 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,844 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 5.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (254,400 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,844 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Ectemnius continuus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 9.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (267,700 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (7,260 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 9.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (267,700 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (7,260 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Ectemnius dives: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -16.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (111,700 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (732 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -16.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (111,700 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (732 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Ectemnius lapidarius: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 7.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (289,650 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (876 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 7.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (289,650 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (876 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Ectemnius lituratus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 22.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (140,100 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,400 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 22.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (140,100 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,400 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Ectemnius rubicola: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 4.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (91,850 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,140 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 4.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (91,850 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,140 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Ectemnius ruficornis: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 8.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (199,300 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (624 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 8.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (199,300 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (624 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Ectemnius sexcinctus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (239,900 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (560 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (239,900 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (560 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Entomognathus brevis: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -13.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (143,200 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,972 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -13.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (143,200 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,972 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Gorytes laticinctus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 37.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (129,250 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (748 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 37.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (129,250 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (748 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Gorytes quadrifasciatus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -6.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (148,950 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,088 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -6.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (148,950 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,088 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Harpactus tumidus: iso. Bitsch et al: 1997</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -12.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (236,300 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,212 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -12.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (236,300 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,212 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -2627,21 +2644,21 @@
     <t>Lestiphorus bicinctus: iso. Bitsch et al: 1997</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 43.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (93,050 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (616 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 43.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (93,050 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (616 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lindenius albilabris: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 0.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (266,300 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,580 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 0.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (266,300 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,580 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lindenius panzeri: iso. Richards: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -1.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (105,700 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,044 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -1.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (105,700 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,044 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -2655,7 +2672,7 @@
     <t>Mellinus arvensis: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -4.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (371,900 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (5,004 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -4.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (371,900 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (5,004 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -2669,28 +2686,28 @@
     <t>Mimesa bicolor: iso. Bitsch et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (34,500 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (68 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (34,500 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (68 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Mimesa bruxellensis: iso. Bitsch et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (93,450 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (256 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (93,450 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (256 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Mimesa equestris: iso. Bitsch et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -25.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (257,000 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,664 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -25.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (257,000 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,664 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Mimesa lutaria: iso. Bitsch et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -9.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (100,400 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (784 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -9.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (100,400 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (784 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -2704,7 +2721,7 @@
     <t>Mimumesa dahlbomi: iso. Bitsch et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 8.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (240,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,840 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 8.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (240,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,840 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -2714,28 +2731,29 @@
     <t>Mimumesa littoralis: iso. Bitsch et al: 2001</t>
   </si>
   <si>
-    <t>The most threatening accepted population change estimate is -20.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (43,550 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (108 km^2) is below the 500 km^2 EN threshold for criterion B2. There are assessed to be fewer or equal to 10 locations (VU) and there is continuing decline observed &amp; projected to the area/extent/quality of habitat. The end result is an assessment of VU under B. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>The most threatening accepted population change estimate is -20.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (43,550 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (108 km²) is below the 500 km² EN threshold for criterion B2. There are assessed to be fewer or equal to 10 locations (VU) and there is continuing decline observed &amp; projected to the area/extent/quality of habitat. The end result is an assessment of VU under B. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 Since the early assessment nomenclatural split of M. littoralis and M. unicolor, the distribution of this stem / root / ground nesting wasp is more clearly defined. Most British records originate from dune systems, where the species is associated with the dry marram zone of  “white dune” areas. The more recently found Charmouth-Lyme Regis population appears to be associated with typical undercliff habitats: damp, bare clay with sparse vegetation and seepages supporting common reed. The major (west coast – particularly Wales) population lives in areas at risk of damage by major storm surges.</t>
   </si>
   <si>
     <t>Mimumesa spooneri: iso. Bitsch et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (6,450 km^2) is below the 20,000 km^2 VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (72 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (6,450 km²) is below the 20,000 km² VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (72 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Mimumesa unicolor: iso. Bitsch et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 6.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (26,250 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (240 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 6.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (26,250 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (240 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Miscophus ater: iso. Richards: 1980</t>
   </si>
   <si>
-    <t>No assessment was possible under Criterion A due insufficient data. The EoO (900 km^2) is below the 5,000 km^2 EN threshold for criterion B1 and the AoO (8 km^2) is below the 10 km^2 CR threshold for criterion B2. There are fewer or equal to 5 locations, but no evidence of any specific threats to area, extent, or habitat. This may be a lack of knowledge rather than a true absence. For Criterion D2, the number of locations was fewer or equal to 5, but there is no plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E._x000b__x000b_This taxon was moderated from LC to NT during peer review, with multiple reviewers believing that the taxon should be assessed at a higher threat status than it currently is. However, under the Red List guidance and current knowledge, a higher threat status is impossible to obtain.
+    <t>No assessment was possible under Criterion A due insufficient data. The EoO (900 km²) is below the 5,000 km² EN threshold for criterion B1 and the AoO (8 km²) is below the 10 km² CR threshold for criterion B2. There are fewer or equal to 5 locations, but no evidence of any specific threats to area, extent, or habitat. This may be a lack of knowledge rather than a true absence. For Criterion D2, the number of locations was fewer or equal to 5, but there is no plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+This taxon was moderated from LC to NT during peer review, with multiple reviewers believing that the taxon should be assessed at a higher threat status than it currently is. However, under the Red List guidance and current knowledge, a higher threat status is impossible to obtain.
 This small, spider-hunting wasp black wasp - not a pompilid wasp but a crabronid wasp predator of smaller spiders than pompilids – is restricted to two populations on coastal dunes in Kent and East Sussex.  Both populations exist on narrow strips of coastal land. Both locations are highly vulnerable to the same large storm surge, with little potential surrounding habitat to retreat to.</t>
   </si>
   <si>
@@ -2749,7 +2767,7 @@
     <t>Miscophus concolor: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (28,000 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (296 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (28,000 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (296 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -2763,105 +2781,105 @@
     <t>Nitela lucens: iso. Bitsch et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (21,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (136 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (21,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (136 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Nysson dimidiatus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -14.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (162,950 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (784 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -14.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (162,950 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (784 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Nysson interruptus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (3,950 km^2) is below the 5,000 km^2 EN threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (44 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (3,950 km²) is below the 5,000 km² EN threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (44 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Nysson spinosus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -21.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (276,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,348 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -21.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (276,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,348 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Nysson trimaculatus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 8.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (142,100 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,364 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 8.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (142,100 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,364 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Oxybelus argentatus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -16.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (149,350 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (332 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -16.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (149,350 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (332 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Oxybelus mandibularis: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 6.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (189,650 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (332 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 6.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (189,650 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (332 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Oxybelus uniglumis: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 2.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (244,800 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (4,492 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 2.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (244,800 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (4,492 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Passaloecus clypealis: iso. Bitsch et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 10.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (17,050 km^2) is below the 20,000 km^2 VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (108 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 10.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (17,050 km²) is below the 20,000 km² VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (108 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Passaloecus corniger: iso. Bitsch et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -7.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (186,350 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,384 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -7.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (186,350 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,384 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Passaloecus eremita: iso. Bitsch et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 109.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (100,200 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (468 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 109.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (100,200 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (468 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Passaloecus gracilis: iso. Guichard: 2002</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -17.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (180,800 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,608 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -17.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (180,800 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,608 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Passaloecus insignis: iso. Bitsch et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 14.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (120,500 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (668 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 14.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (120,500 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (668 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Passaloecus monilicornis: iso. Bitsch et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (73,950 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (144 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (73,950 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (144 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Passaloecus singularis: iso. Bitsch et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -17.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (141,900 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,176 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -17.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (141,900 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,176 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -2892,7 +2910,7 @@
     <t>Pemphredon inornata: iso. Dollfuss: 1995</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 11.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (259,000 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,728 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 11.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (259,000 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,728 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -2908,7 +2926,7 @@
     <t>Pemphredon lugubris: iso. Dollfuss: 1995</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 7.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (325,100 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,460 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 7.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (325,100 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,460 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -2925,7 +2943,7 @@
     <t>Philanthus triangulum: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 12.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (164,050 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,796 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 12.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (164,050 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,796 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -2966,14 +2984,14 @@
     <t>Rhopalum clavipes: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (333,350 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,220 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (333,350 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,220 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Rhopalum coarctatum: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 30.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (207,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,756 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 30.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (207,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,756 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -2987,7 +3005,7 @@
     <t>Spilomena beata: iso. Vikberg: 2000</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (80,700 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (136 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (80,700 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (136 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -3003,28 +3021,28 @@
     <t>Spilomena enslini: iso. Vikberg: 2000</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (77,750 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (92 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (77,750 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (92 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Spilomena troglodytes: iso. Vikberg: 2000</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 74.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (142,550 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (536 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 74.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (142,550 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (536 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Stigmus pendulus: iso. Bitsch et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 16.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (110,900 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (632 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 16.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (110,900 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (632 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Stigmus solskyi: iso. Bitsch et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -5.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (108,250 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,220 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -5.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (108,250 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,220 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -3034,7 +3052,7 @@
     <t>Tachysphex nitidus: iso. Bitsch et al: 2001</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (134,650 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (140 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (134,650 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (140 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -3044,7 +3062,7 @@
     <t>Tachysphex pompiliformis: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -20.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (290,800 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,932 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -20.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (290,800 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,932 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -3054,21 +3072,21 @@
     <t>Tachysphex unicolor: iso. Bitsch et al: 2001</t>
   </si>
   <si>
-    <t>No assessment was possible under Criterion A due insufficient data. The EoO (3,700 km^2) is below the 5,000 km^2 EN threshold for criterion B1 and the AoO (24 km^2) is below the 500 km^2 EN threshold for criterion B2. There are fewer or equal to 5 locations, and continuing decline observed/projected in area, extent &amp; quality of habitat. For Criterion D2, the number of locations was fewer or equal to 5, and there is a plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>No assessment was possible under Criterion A due insufficient data. The EoO (3,700 km²) is below the 5,000 km² EN threshold for criterion B1 and the AoO (24 km²) is below the 500 km² EN threshold for criterion B2. There are fewer or equal to 5 locations, and continuing decline observed/projected in area, extent &amp; quality of habitat. For Criterion D2, the number of locations was fewer or equal to 5, and there is a plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 Historically rare and – with loss of some inland sites historically – this grasshopper-hunting wasp is now a very rare species. The current distribution is apparently restricted to the south coast of the Isle of Wight and some places on the Dorset coast. All currently known nesting locations are on sea-facing sites, within the same area, vulnerable to a singular storm surge event.</t>
   </si>
   <si>
     <t>Trypoxylon attenuatum: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 1.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (281,000 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,776 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 1.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (281,000 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,776 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Trypoxylon clavicerum: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 37.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (207,350 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,132 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 37.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (207,350 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,132 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -3085,14 +3103,14 @@
     <t>Trypoxylon figulus: iso. Pulawski: 1984</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 35.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (169,750 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (812 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 35.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (169,750 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (812 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Trypoxylon medium: iso. Pulawski: 1984</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (206,850 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,204 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (206,850 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,204 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -3112,14 +3130,14 @@
     <t>Ammophila pubescens: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 15.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (52,250 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (548 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 15.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (52,250 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (548 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Ammophila sabulosa: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 1.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (272,850 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,524 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 1.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (272,850 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,524 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -3133,14 +3151,14 @@
     <t>Podalonia affinis: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -9.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (102,750 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (364 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -9.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (102,750 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (364 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Podalonia hirsuta: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -23.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (154,200 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (656 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -23.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (154,200 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (656 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -3166,7 +3184,7 @@
     <t>Bethylus cephalotes: iso. Perkins: 1976</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (259,300 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (336 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (259,300 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (336 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -3180,7 +3198,7 @@
     <t>Bethylus fuscicornis: iso. Perkins: 1976</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (228,250 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (368 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (228,250 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (368 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -3229,14 +3247,14 @@
     <t>Epyris niger: iso. Perkins: 1976</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 102.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (40,850 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (352 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 102.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (40,850 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (352 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Goniozus claripennis: iso. Perkins: 1976</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (18,950 km^2) is below the 20,000 km^2 VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (36 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (18,950 km²) is below the 20,000 km² VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (36 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -3305,7 +3323,7 @@
     <t>Chrysis angustula: iso. Paukkunen et al: 2015</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -7.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (232,200 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,988 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -7.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (232,200 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,988 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -3322,14 +3340,14 @@
     <t>Chrysis fulgida: iso. Morgan: 1984</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (25,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (68 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (25,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (68 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Chrysis gracillima: iso. Paukkunen et al: 2015</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 67.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (55,400 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (324 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 67.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (55,400 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (324 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -3346,7 +3364,7 @@
     <t>Chrysis illigeri: iso. Paukkunen et al: 2015</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 11.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (63,700 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (560 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 11.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (63,700 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (560 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -3376,7 +3394,7 @@
     <t>Chrysis ruddii: iso. Morgan: 1984</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (243,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (292 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (243,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (292 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -3389,21 +3407,21 @@
     <t>Chrysis terminata: iso. Paukkunen et al: 2015</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (79,250 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (92 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (79,250 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (92 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Chrysis vanlithi: iso. Paukkunen et al: 2015</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 47.0% (Bayesian upper 95% CI), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (422,200 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (616 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 47.0% (Bayesian upper 95% CI), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (422,200 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (616 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Chrysis viridula: iso. Morgan: 1984</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 34.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (187,400 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (808 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 34.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (187,400 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (808 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -3417,14 +3435,14 @@
     <t>Chrysura radians: iso. Paukkunen et al: 2015</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 55.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (111,700 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (372 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 55.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (111,700 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (372 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Cleptes nitidulus: iso. Morgan: 1984</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (74,350 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (132 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (74,350 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (132 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -3452,7 +3470,7 @@
     <t>Hedychridium ardens: iso. Morgan: 1984</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -17.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (260,000 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,936 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -17.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (260,000 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,936 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -3466,14 +3484,14 @@
     <t>Hedychridium coriaceum: iso. Morgan: 1984</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (9,000 km^2) is below the 20,000 km^2 VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (180 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (9,000 km²) is below the 20,000 km² VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (180 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Hedychridium cupreum: iso. Morgan: 1984</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (182,050 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (224 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (182,050 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (224 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -3490,14 +3508,14 @@
     <t>Hedychrum niemelai: iso. Paukkunen et al: 2015</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 34.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (73,100 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (420 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 34.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (73,100 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (420 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Hedychrum nobile: iso. Paukkunen et al: 2015</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 34.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (63,350 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (428 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 34.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (63,350 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (428 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -3518,14 +3536,14 @@
     <t>Omalus aeneus: iso. Paukkunen et al: 2015</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (94,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (240 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (94,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (240 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Omalus puncticollis: iso. Paukkunen et al: 2015</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (71,950 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (184 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (71,950 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (184 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -3539,28 +3557,28 @@
     <t>Pseudomalus auratus: iso. Paukkunen et al: 2015</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 9.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (239,850 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,656 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 9.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (239,850 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,656 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Pseudomalus violaceus: iso. Paukkunen et al: 2015</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (110,950 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (328 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (110,950 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (328 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Pseudospinolia neglecta: iso. Paukkunen et al: 2015</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (72,350 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (184 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (72,350 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (184 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Trichrysis cyanea: iso. Morgan: 1984</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 14.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (176,100 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,136 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 14.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (176,100 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,136 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -3633,14 +3651,14 @@
     <t>Anteon jurineanum: iso. Olmi: 1994</t>
   </si>
   <si>
-    <t>The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (83,000 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (68 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (83,000 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (68 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 Records have been made for England and Wales, though details of biology and ecology are poorly known. In addition, the taxonomy of the species is also complex (the species being known under a number of synonyms).</t>
   </si>
   <si>
     <t>Anteon pubicorne: iso. Olmi: 1994</t>
   </si>
   <si>
-    <t>The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (88,850 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (104 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (88,850 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (104 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 Although one of the better recorded species of the genus (with records throughout England and Wales) details of biology and ecology are poorly known. In addition, the taxonomy of the species is also complex (the species being known under a number of synonyms).</t>
   </si>
   <si>
@@ -3738,7 +3756,7 @@
     <t>Gonatopus clavipes: iso. Olmi: 1994</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (159,400 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (72 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (159,400 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (72 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 Although widely distributed in GB - England, Wales (Glamorganshire, Pembrokeshire, Carmarthenshire, Gwynedd, Anglesey, Flintshire) and Scotland (Highlands), ecology and biology are poorly known. </t>
   </si>
   <si>
@@ -3801,7 +3819,7 @@
     <t>Lonchodryinus ruficornis: iso. Olmi: 1994</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (132,450 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (96 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (132,450 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (96 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -3848,49 +3866,49 @@
     <t>Formica aquilonia: iso. Bolton &amp; Collingwood: 1975</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (33,800 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (512 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (33,800 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (512 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Formica cunicularia: iso. Bolton &amp; Collingwood: 1975</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (170,200 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,912 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (170,200 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,912 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Formica exsecta: iso. Bolton &amp; Collingwood: 1975</t>
   </si>
   <si>
-    <t>No assessment was possible under Criterion A due insufficient data. The EoO (27,000 km^2) is above the 20,000 km^2 VU threshold for criterion B1 and the AoO (124 km^2) is below the 500 km^2 EN threshold for criterion B2. There are fewer or equal to 10 locations, and continuing decline observed/projected in area, extent &amp; quality of habitat. For Criterion D2, the number of locations was greater than 5, and there is no plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>No assessment was possible under Criterion A due insufficient data. The EoO (27,000 km²) is above the 20,000 km² VU threshold for criterion B1 and the AoO (124 km²) is below the 500 km² EN threshold for criterion B2. There are fewer or equal to 10 locations, and continuing decline observed/projected in area, extent &amp; quality of habitat. For Criterion D2, the number of locations was greater than 5, and there is no plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 This “wood ant” builds smaller nests than the other mound nesting species of the genus and nests have been found in open heath or moor, as well as woodland rides and clearings, and roadside verges. The distribution has always been disjunct and limited to the south coast of England and the Scottish Highlands but is much declined in England and to a lesser extent in Scotland. For the main (Scottish) population it requires a maintained amount of successional edge habitat in woodland. As such it has a potential management conflict with Capercaillie, with which it shares a geographic region. The Capercaillie requires denser continuous forest cover than this taxon.</t>
   </si>
   <si>
     <t>Formica fusca: iso. Bolton &amp; Collingwood: 1975</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -10.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (325,800 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (5,564 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -10.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (325,800 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (5,564 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Formica lemani: iso. Bolton &amp; Collingwood: 1975</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -17.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (353,400 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,740 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -17.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (353,400 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,740 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Formica lugubris: iso. Bolton &amp; Collingwood: 1975</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (140,900 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (944 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (140,900 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (944 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Formica picea: iso. Seifert: 2007</t>
   </si>
   <si>
-    <t>No assessment was possible under Criterion A due insufficient data. The EoO (66,000 km^2) is above the 20,000 km^2 EN threshold for criterion B1 and the AoO (92 km^2) is below the 500 km^2 EN threshold for criterion B2. There are fewer or equal to 10 locations, and continuing decline observed/projected in area, extent &amp; quality of habitat. was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>No assessment was possible under Criterion A due insufficient data. The EoO (66,000 km²) is above the 20,000 km² EN threshold for criterion B1 and the AoO (92 km²) is below the 500 km² EN threshold for criterion B2. There are fewer or equal to 10 locations, and continuing decline observed/projected in area, extent &amp; quality of habitat. was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 This ant – a specialist of wet lowland heath – has always been restricted to South Wales and southern counties of England (Dorset, Hampshire and Surrey). It has disappeared from several of its former sites and is vulnerable to changes in hydrology, as well as vegetation succession. It may be under-recorded in known locations due to confusion with other species in the Serviformica sub genus but there is no evidence it occurs anywhere else in GB.</t>
   </si>
   <si>
@@ -3904,7 +3922,7 @@
     <t>Formica rufa: iso. Bolton &amp; Collingwood: 1975</t>
   </si>
   <si>
-    <t>The most threatening accepted population change estimate is 10.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. Expert inference assessed the taxon as VU (30% decline over 10 years), predominantly based on survey experience and research work performed on this species. The assessment of VU was supported by all peer reviewers who provided a response. The EoO (134,050 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,116 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2. There are assessed to be greater or equal to 10 locations (VU) and there is no continuing decline observed &amp; projected to the area, extent/quality of habitat. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>The most threatening accepted population change estimate is 10.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. Expert inference assessed the taxon as VU (30% decline over 10 years), predominantly based on survey experience and research work performed on this species. The assessment of VU was supported by all peer reviewers who provided a response. The EoO (134,050 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,116 km²) exceeds the 2,000 km² VU threshold for criterion B2. There are assessed to be greater or equal to 10 locations (VU) and there is no continuing decline observed &amp; projected to the area, extent/quality of habitat. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 This mound nesting “wood ant” has undergone contraction of the range of especially in northern, central and eastern England and parts of Wales. Changes to woodland management practices have contributed to decline and current woodland management practices do not lead to suitable conditions for spread. These effects have been noted throughout GB by multiple experts - including directed survey efforts by regional recorders - and a large number of academic research projects.</t>
   </si>
   <si>
@@ -3916,21 +3934,21 @@
 )</t>
   </si>
   <si>
-    <t>No statistical assessment was possible under Criterion A due insufficient data. Expert inference assessed this taxon as NT under future threat on the basis of continued intensification of the very localised known occupied areas, lack of support for current conservation efforts, and low possibility of recolonisation. The EoO (7,600 km^2) is below the 20,000 km^2 VU threshold for criterion B1 and the AoO (28 km^2) is below the 500 km^2 EN threshold for criterion B2. There are fewer or equal to 5 locations, and continuing/projected decline in extent of occurrence, area of occupancy, and area,extent &amp; quality of habitat. For Criterion D2, the number of locations was fewer or equal to 5, and there is a plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>No statistical assessment was possible under Criterion A due insufficient data. Expert inference assessed this taxon as NT under future threat on the basis of continued intensification of the very localised known occupied areas, lack of support for current conservation efforts, and low possibility of recolonisation. The EoO (7,600 km²) is below the 20,000 km² VU threshold for criterion B1 and the AoO (28 km²) is below the 500 km² EN threshold for criterion B2. There are fewer or equal to 5 locations, and continuing/projected decline in extent of occurrence, area of occupancy, and area, extent &amp; quality of habitat. For Criterion D2, the number of locations was fewer or equal to 5, and there is a plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 This mound nesting ant has always been very rare in the British Isles: all well-substantiated records are from Surrey and the Isles of Scilly. The mainland population is threatened by development (1 colony was lost when a manhole cover was replaced), while the Scilly population has a threat of increased vegetational growth reducing nesting viability. There is close to zero possibility of re-colonisation from within GB should one of these sites be lost. The mainland population is currently being conserved / maintained by a volunteer group with low support.</t>
   </si>
   <si>
     <t>Formica sanguinea: iso. Bolton &amp; Collingwood: 1875</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -2.0% (Bayesian upper 95% CI), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (159,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (980 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -2.0% (Bayesian upper 95% CI), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (159,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (980 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Formicoxenus nitidulus: iso. Bolton &amp; Collingwood: 1975</t>
   </si>
   <si>
-    <t>No statistical assessment was possible under Criterion A due insufficient data. Expert inference assessed this taxon as VU on the basis of the extent of occupancy of one of two hosts (*Formica rufa*: iso. Bolton &amp; Collingwood: 1975). This taxon is the only host found in the south of England, the loss or contraction of which alone has a very high probability to cause &gt;30% decline in the extent of occupancy of  *F. nitidulus*. The EoO (143,100 km^2) is above the 20,000 km^2 VU threshold for criterion B1 and the AoO (344 km^2) is below the 500 km^2 EN threshold for criterion B2. However, the taxon does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5, and there is no plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>No statistical assessment was possible under Criterion A due insufficient data. Expert inference assessed this taxon as VU on the basis of the extent of occupancy of one of two hosts (*Formica rufa*: iso. Bolton &amp; Collingwood: 1975). This taxon is the only host found in the south of England, the loss or contraction of which alone has a very high probability to cause &gt;30% decline in the extent of occupancy of  *F. nitidulus*. The EoO (143,100 km²) is above the 20,000 km² VU threshold for criterion B1 and the AoO (344 km²) is below the 500 km² EN threshold for criterion B2. However, the taxon does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5, and there is no plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 This is a “guest ant” which lives as a harmless commensal within the nest mounds of *Formica* species. Although the species has been found to associate with three *Formica* species, 1 of these - *F. rufa* - is assessed as VU. *F. rufa* is the only host in the south of this taxon's range, and with most modern records from the south of England constitutes a significant portion of the known taxon's population. Targeted surveying has been undertaken for this species in the assessment period.</t>
   </si>
   <si>
@@ -3964,14 +3982,14 @@
     <t>Lasius alienus: iso. Seifert: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (235,900 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (580 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (235,900 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (580 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lasius brunneus: iso. Bolton &amp; Collingwood: 1975</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 1.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (61,950 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,324 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 1.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (61,950 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,324 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -3985,14 +4003,14 @@
     <t>Lasius flavus: iso. Bolton &amp; Collingwood: 1975</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 1.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (397,450 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (9,136 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 1.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (397,450 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (9,136 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lasius fuliginosus: iso. Bolton &amp; Collingwood: 1975</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -6.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (198,650 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,004 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -6.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (198,650 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,004 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -4026,21 +4044,21 @@
     <t>Lasius niger: iso. Seifert: 1992</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (379,000 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (6,324 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (379,000 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (6,324 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lasius platythorax: iso. Seifert: 1992</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (234,200 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,360 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (234,200 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,360 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Lasius psammophilus: iso. Seifert: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (136,250 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (620 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (136,250 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (620 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -4061,7 +4079,7 @@
     <t>Leptothorax acervorum: iso. Bolton &amp; Collingwood: 1975</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (351,450 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,792 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (351,450 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,792 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -4096,7 +4114,7 @@
     <t>Myrmecina graminicola: iso. Bolton &amp; Collingwood: 1975</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 127.0% (Bayesian upper 95% CI), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (115,900 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (720 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 127.0% (Bayesian upper 95% CI), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (115,900 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (720 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -4110,14 +4128,14 @@
     <t>Myrmica karavajevi: iso. Radchenko &amp; Elmes: 2003</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (21,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, the AoO was not accepted. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (21,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, the AoO was not accepted. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Myrmica lobicornis: iso. Bolton &amp; Collingwood: 1975</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (278,550 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (400 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (278,550 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (400 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -4131,21 +4149,21 @@
     <t>Myrmica rubra: iso. Bolton &amp; Collingwood: 1975</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (379,500 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (5,172 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (379,500 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (5,172 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Myrmica ruginodis: iso. Bolton &amp; Collingwood: 1975</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (575,950 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (10,964 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (575,950 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (10,964 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Myrmica sabuleti agg: iso. Elmes: 1978</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (373,950 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,788 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (373,950 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,788 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -4159,7 +4177,7 @@
     <t>Myrmica scabrinodis agg: iso. Seifert: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (434,000 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (6,768 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (434,000 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (6,768 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -4173,21 +4191,21 @@
     <t>Myrmica schencki: iso. Bolton &amp; Collingwood: 1975</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (52,700 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (448 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (52,700 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (448 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Myrmica specioides: iso. Seifert: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (33,100 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (400 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (33,100 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (400 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Myrmica sulcinodis: iso. Bolton &amp; Collingwood: 1975</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (168,350 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (376 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (168,350 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (376 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -4231,7 +4249,7 @@
     <t>Ponera testacea: iso. Csösz &amp; Seifert: 2003</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (44,900 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (52 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (44,900 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (52 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -4245,7 +4263,7 @@
     <t>Stenamma debile: iso. Dubois: 1998</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (162,000 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (592 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (162,000 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (592 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -4303,7 +4321,7 @@
     <t>Temnothorax albipennis: iso. Seifert: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (112,250 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (236 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (112,250 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (236 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -4315,14 +4333,14 @@
 )</t>
   </si>
   <si>
-    <t>No statistical assessment was possible under Criterion A due insufficient data. Expert inference assessed this taxon as LC, noting that it is on the northernmost edge of its range. The EoO (6,000 km^2) is below the 20,000 km^2 VU threshold for criterion B1 and the AoO (48 km^2) is below the 500 km^2 EN threshold for criterion B2. There are fewer or equal to 5 locations, and continuing/projected decline in extent of occurrence, area of occupancy, number of individuals, and area, extent &amp; quality of habitat. For Criterion D2, the number of locations was fewer or equal to 5, and there is a plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>No statistical assessment was possible under Criterion A due insufficient data. Expert inference assessed this taxon as LC, noting that it is on the northernmost edge of its range. The EoO (6,000 km²) is below the 20,000 km² VU threshold for criterion B1 and the AoO (48 km²) is below the 500 km² EN threshold for criterion B2. There are fewer or equal to 5 locations, and continuing/projected decline in extent of occurrence, area of occupancy, number of individuals, and area, extent &amp; quality of habitat. For Criterion D2, the number of locations was fewer or equal to 5, and there is a plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 This small ant, with a correspondingly small nest, is associated with heathland and particularly lichen heath. It is currently known from only three counties – in Dorset, Hampshire (New Forest) and Kent (Dungeness). It has been the subject of targeted survey effort without the discovery of new sites and is highly susceptible to localised events such as storm surges and vegetation succession. One site in Dorset has been destroyed by conversion into a gravel pit.</t>
   </si>
   <si>
     <t>Temnothorax nylanderi: iso. Seifert: 2007</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -19.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (101,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,176 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -19.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (101,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,176 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -4387,21 +4405,21 @@
     <t>Mutilla europaea: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -24.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (161,450 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (588 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -24.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (161,450 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (588 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Myrmosa atra: iso. Amiet: 2008</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -6.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (192,550 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,816 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -6.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (192,550 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,816 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Smicromyrme rufipes: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -27.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (41,650 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (636 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -27.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (41,650 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (636 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -4418,49 +4436,49 @@
     <t>Agenioideus cinctellus: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 27.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (146,800 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,300 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 27.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (146,800 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,300 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Agenioideus sericeus: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (7,550 km^2) is below the 20,000 km^2 VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (32 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (7,550 km²) is below the 20,000 km² VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (32 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Anoplius caviventris: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 12.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (70,000 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (172 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 12.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (70,000 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (172 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Anoplius concinnus: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -3.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (272,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (644 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -3.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (272,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (644 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Anoplius infuscatus: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -27.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (182,650 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,504 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -27.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (182,650 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,504 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Anoplius nigerrimus: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 3.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (400,550 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (4,824 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 3.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (400,550 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (4,824 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Anoplius viaticus: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -26.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (137,950 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,304 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -26.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (137,950 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,304 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -4470,28 +4488,28 @@
     <t>Aporus unicolor: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (99,550 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (308 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (99,550 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (308 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Arachnospila anceps: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -12.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (356,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,612 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -12.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (356,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,612 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Arachnospila consobrina: iso. Day: 1988</t>
   </si>
   <si>
-    <t>No assessment was possible under Criterion A due insufficient data. The EoO (32,650 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and the AoO (36 km^2) is below the 500 km^2 EN threshold for criterion B2. There are fewer or equal to 5 locations, and continuing/projected decline in extent of occurrence, area of occupancy, number of locations/subpopulations, number of individuals, and area, extent &amp; quality of habitat. For Criterion D2, the number of locations was equal to or fewer than 5, and there is a plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>No assessment was possible under Criterion A due insufficient data. The EoO (32,650 km²) exceeds the 20,000 km² VU threshold for criterion B1 and the AoO (36 km²) is below the 500 km² EN threshold for criterion B2. There are fewer or equal to 5 locations, and continuing/projected decline in extent of occurrence, area of occupancy, number of locations/subpopulations, number of individuals, and area, extent &amp; quality of habitat. For Criterion D2, the number of locations was equal to or fewer than 5, and there is a plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 This fossorial (ground digging) spider-hunting wasp has always been very localised on the coastal areas of GB. There are old records for the east and southeast coast, but the v. few modern records are very localised in South Wales - most of the known population exists in one small area which is vulnerable to a single storm surge and as such it has been assessed as VU.</t>
   </si>
   <si>
     <t>Arachnospila minutula: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (151,450 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (704 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (151,450 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (704 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -4505,42 +4523,42 @@
     <t>Arachnospila spissa: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -16.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (280,350 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,096 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -16.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (280,350 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,096 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Arachnospila trivialis: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 11.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (155,800 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (904 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 11.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (155,800 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (904 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Arachnospila wesmaeli: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (129,850 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (240 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (129,850 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (240 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Auplopus carbonarius: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 25.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (118,350 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,276 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 25.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (118,350 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,276 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Caliadurgus fasciatellus: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -12.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (126,650 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,352 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -12.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (126,650 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,352 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Ceropales maculata: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 15.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (274,900 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (408 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 15.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (274,900 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (408 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -4554,28 +4572,28 @@
     <t>Cryptocheilus notatus: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (29,400 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (416 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (29,400 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (416 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Dipogon bifasciatus: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (56,550 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (64 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (56,550 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (64 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Dipogon subintermedius: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 15.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (144,050 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,320 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 15.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (144,050 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,320 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Dipogon variegatus: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -19.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (225,950 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,340 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -19.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (225,950 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,340 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -4585,28 +4603,28 @@
     <t>Episyron rufipes: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -28.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (203,700 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,300 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -28.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (203,700 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,300 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Evagetes crassicornis: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -3.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (304,250 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,404 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -3.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (304,250 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,404 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Evagetes dubius: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -4.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (55,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (464 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -4.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (55,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (464 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Evagetes pectinipes: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -7.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (17,750 km^2) is below the 20,000 km^2 VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (112 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -7.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (17,750 km²) is below the 20,000 km² VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (112 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -4616,77 +4634,77 @@
     <t>Homonotus sanguinolentus: iso. Day: 1988</t>
   </si>
   <si>
-    <t>No statistical assessment was possible under Criterion A due insufficient data. Expert inference assessed this taxon as VU under future threat on the basis of peri- and post-assessment targeted surveys of known sites. The EoO (2,700 km^2) is below the 5,000 km^2 EN threshold for criterion B1 and the AoO (44 km^2) is below the 500 km^2 EN threshold for criterion B2. There are fewer or equal to 5 locations, and continuing/projected decline in area, extent &amp; quality of habitat. For Criterion D2, the number of locations was fewer or equal to 5, but there is no plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>No statistical assessment was possible under Criterion A due insufficient data. Expert inference assessed this taxon as VU under future threat on the basis of peri- and post-assessment targeted surveys of known sites. The EoO (2,700 km²) is below the 5,000 km² EN threshold for criterion B1 and the AoO (44 km²) is below the 500 km² EN threshold for criterion B2. There are fewer or equal to 5 locations, and continuing/projected decline in area, extent &amp; quality of habitat. For Criterion D2, the number of locations was fewer or equal to 5, but there is no plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 Records of this highly distinctive spider-hunting wasp are confined to a small number of heathland sites in southern England, with modern records restricted to lowland heath and valley mires in Hampshire and Dorset. It is an elusive species which targets the covered, silken nests of the spider Cheiracanthium erraticum (Clubionidae). Land management practices within the major known locations are proving unfavourable, leading to decline in available habitat.</t>
   </si>
   <si>
     <t>Pompilus cinereus: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -21.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (251,550 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,724 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -21.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (251,550 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,724 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Priocnemis agilis: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (79,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (336 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (79,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (336 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Priocnemis confusor: iso. Wiśniowski: 2009</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (110,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (304 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (110,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (304 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Priocnemis cordivalvata: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (105,650 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (168 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (105,650 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (168 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Priocnemis coriacea: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (87,750 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (384 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (87,750 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (384 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Priocnemis exaltata: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 11.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (262,750 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,072 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 11.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (262,750 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,072 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Priocnemis fennica: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -14.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (142,650 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (796 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -14.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (142,650 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (796 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Priocnemis hyalinata: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (92,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (372 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (92,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (372 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Priocnemis parvula: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -27.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (338,050 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,748 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -27.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (338,050 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,748 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Priocnemis perturbator: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -25.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (260,900 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,668 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -25.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (260,900 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,668 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -4700,21 +4718,21 @@
     <t>Priocnemis pusilla: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 3.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (143,900 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,140 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 3.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (143,900 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,140 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Priocnemis schioedtei: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (209,550 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (464 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population decline was inferred at 0% using expert inference (A2). This does not exceed the 30% decline required for qualification as VU. The EoO (209,550 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (464 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Priocnemis susterai: iso. Day: 1988</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 21.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (148,950 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (636 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 21.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (148,950 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (636 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -4724,14 +4742,14 @@
     <t>Monosapyga clavicornis: iso. Amiet: 2008</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -11.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (119,500 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (444 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -11.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (119,500 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (444 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Sapyga quinquepunctata: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -2.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (168,800 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,392 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -2.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (168,800 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,392 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -4753,21 +4771,21 @@
     <t>Methocha articulata: iso. Amiet: 2008</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 8.0% (Bayesian upper 95% CI), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (142,200 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (472 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 8.0% (Bayesian upper 95% CI), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (142,200 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (472 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Tiphia femorata: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 23.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (133,650 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,416 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 23.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (133,650 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,416 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Tiphia minuta: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 39.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (237,000 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,496 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 39.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (237,000 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,496 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -4794,84 +4812,84 @@
     <t>Ancistrocerus gazella: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -17.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (288,150 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,588 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -17.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (288,150 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,588 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Ancistrocerus nigricornis: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -2.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (192,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,196 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -2.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (192,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,196 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Ancistrocerus oviventris: iso. Archer: 2000</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -27.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (395,500 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,372 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -27.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (395,500 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,372 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Ancistrocerus parietinus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -8.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (295,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (928 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -8.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (295,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (928 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Ancistrocerus parietum: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -17.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (312,500 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,460 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -17.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (312,500 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,460 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Ancistrocerus scoticus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -29.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (445,200 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,200 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -29.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (445,200 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,200 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Ancistrocerus trifasciatus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -14.0% (Bayesian upper 95% CI), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (214,700 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,532 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -14.0% (Bayesian upper 95% CI), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (214,700 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,532 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Dolichovespula media: iso. Archer: 1989</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -9.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (233,500 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,296 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -9.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (233,500 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,296 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Dolichovespula norwegica: iso. Archer: 1989</t>
   </si>
   <si>
-    <t>The data are too volatile to be used for statistical assessment under Criterion A, primarily as a result of targeted survey effort in Scotland causing significant distortion in volume of data. Expert inference assessed this taxon as NT due to patterns of recent, ongoing decline observed in recent data that the Red List has no standardised provision to capture. These patterns of decline were observed in both the BWARS and iRecord datasets, with surprising clarity. The EoO (342,900 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,936 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>The data are too volatile to be used for statistical assessment under Criterion A, primarily as a result of targeted survey effort in Scotland causing significant distortion in volume of data. Expert inference assessed this taxon as NT due to patterns of recent, ongoing decline observed in recent data that the Red List has no standardised provision to capture. These patterns of decline were observed in both the BWARS and iRecord datasets, with surprising clarity. The EoO (342,900 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,936 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 This social wasp, closely associated with heathland / moorland (less so coastal areas), has heavily declined in recent decades in southern England (particularly) and central England. Targeted surveying has been carried out in northeast Scotland where it appears to be stable or even increasing, in contrast to the situation for the remainder of GB.</t>
   </si>
   <si>
     <t>Dolichovespula saxonica: iso. Archer: 1989</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 53.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (285,500 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,400 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 53.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (285,500 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,400 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Dolichovespula sylvestris: iso. Archer: 1989</t>
   </si>
   <si>
-    <t>The most threatening accepted population change estimate is -2.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. Expert inference assessed this taxon as VU due to patterns of recent, ongoing decline observed in recent data that the Red List has no standardised provision to capture. These patterns of decline were observed in both the BWARS and iRecord datasets, with surprising clarity. The EoO (438,800 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (5,976 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>The most threatening accepted population change estimate is -2.0% (tetrad area), which does not exceed the 30% decline required for qualification as VU under Criterion A. Expert inference assessed this taxon as VU due to patterns of recent, ongoing decline observed in recent data that the Red List has no standardised provision to capture. These patterns of decline were observed in both the BWARS and iRecord datasets, with surprising clarity. The EoO (438,800 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (5,976 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 Throughout the last decade, this social wasp (of no habitat affinity – habitats used include gardens) has dramatically decreased in southeast England (particularly) and elsewhere in GB, with its modern distribution considerably more fragmented. Given that the southern area of England has the greatest number and frequency of surveys, the absence is likely to be true. The reason for decline is unknown but could include climate instability.</t>
   </si>
   <si>
     <t>Eumenes coarctatus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -26.0% (Bayesian upper 95% CI), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (16,000 km^2) is below the 20,000 km^2 VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (520 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -26.0% (Bayesian upper 95% CI), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (16,000 km²) is below the 20,000 km² VU threshold for criterion B1 but does not satisfy sufficient subcriteria to reach a threat status, and the AoO (520 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -4899,21 +4917,21 @@
     <t>Gymnomerus laevipes: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 5.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (115,400 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (944 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 5.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (115,400 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (944 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Microdynerus exilis: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 54.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (83,300 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (676 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 54.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (83,300 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (676 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Odynerus melanocephalus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 0.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (98,750 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (636 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 0.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (98,750 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (636 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -4927,14 +4945,14 @@
     <t>Odynerus simillimus: iso. Richards: 1980</t>
   </si>
   <si>
-    <t>No assessment was possible under Criterion A due insufficient data. The EoO (4,250 km^2) is below the 5,000 km^2 EN threshold for criterion B1 and the AoO (84 km^2) is below the 500 km^2 EN threshold for criterion B2. There are fewer or equal to 10 locations (VU), and continuing decline observed/projected in area, extent &amp; quality of habitat. For Criterion D2, the number of locations was greater than 10, and there is no plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>No assessment was possible under Criterion A due insufficient data. The EoO (4,250 km²) is below the 5,000 km² EN threshold for criterion B1 and the AoO (84 km²) is below the 500 km² EN threshold for criterion B2. There are fewer or equal to 10 locations (VU), and continuing decline observed/projected in area, extent &amp; quality of habitat. For Criterion D2, the number of locations are &lt;= 10, but there is no plausible threat of rapid habitat loss that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
  V. little is known about the biology of this very localised eumenine wasp. It has always been entirely restricted to marshy areas of East Anglia and was regarded as extinct between some historic Essex records and its rediscovery in 1986. It has been recorded in East Anglia in the assessment period – however, it feeds on a weevil associated with aquatic Apium, which is a genus of freshwater plants. The multiple, adjacent, East Anglian sites are at risk of a single storm surge bringing saline inundation, which would damage the prey's host plant. This species is also rare in Europe generally, with few records in addition to the GB records.</t>
   </si>
   <si>
     <t>Odynerus spinipes: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 17.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (225,400 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,532 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 17.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (225,400 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,532 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -4948,7 +4966,7 @@
     <t>Polistes dominula: iso. Dvorak &amp; Roberts: 2006</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 57.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (143,050 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (52 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 57.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (143,050 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (52 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -4969,7 +4987,7 @@
     <t>Pseudepipona herrichii: iso. Richards: 1980</t>
   </si>
   <si>
-    <t>The most threatening accepted population change estimate is 0.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (550 km^2) is below the 5,000 km^2 EN threshold for criterion B1 and the AoO (52 km^2) is below the 500 km^2 EN threshold for criterion B2. There are fewer or equal to 5 locations, and continuing/projected decline in the area, extent &amp; quality of habitat. For Criterion D2, the number of locations was equal to or less than 5 and there is a plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t>The most threatening accepted population change estimate is 0.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (550 km²) is below the 5,000 km² EN threshold for criterion B1 and the AoO (52 km²) is below the 500 km² EN threshold for criterion B2. There are fewer or equal to 5 locations, and continuing/projected decline in the area, extent &amp; quality of habitat. For Criterion D2, the number of locations was equal to or less than 5 and there is a plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 This eumenine wasp is the only member of its genus in GB and has been regarded as a rarity from the 19th century to the present, with little change in population status. It is found entirely on heathland. The species has complex requirements, needing exposed ground with a clay content (as a nesting site), open water (to assist in nest building) and heathland rich in bell heather (for both nectar and prey foraging). The nest cells are provisioned with paralysed larvae of the moth Acleris hyemana (Lepidoptera: Tortricidae). No other prey species has been recorded in Britain. Land management practices within the sole known, proximal locations - a few heathland sites in the Poole Basin of south-east Dorset - are proving unfavourable, leading to decline in available habitat. This is backed up with transect data.</t>
   </si>
   <si>
@@ -4979,7 +4997,7 @@
     <t>Symmorphus bifasciatus: iso. Archer: 2000</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -2.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (229,500 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,240 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -2.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (229,500 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (2,240 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -4989,21 +5007,21 @@
     <t>Symmorphus crassicornis: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is -7.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (61,000 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (288 km^2) is below the 500 km^2 EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is -7.0% (absolute record count), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (61,000 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (288 km²) is below the 500 km² EN threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Symmorphus gracilis: iso. Richards: 1980</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 19.0% (Bayesian upper 95% CI), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (135,750 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,576 km^2) is below the 2,000 km^2 VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 19.0% (Bayesian upper 95% CI), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (135,750 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (1,576 km²) is below the 2,000 km² VU threshold for criterion B2 but does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Vespa crabro: iso. Archer: 1989</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 5.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (308,500 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (8,628 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 5.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (308,500 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (8,628 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
@@ -5017,28 +5035,29 @@
     <t>Vespula austriaca: iso. Archer: 1989</t>
   </si>
   <si>
-    <t>There is insufficient data to perform any assessment under Criterion A. The EoO (171,550 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (232 km^2) is below the 500 km^2 EN threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E._x000b__x000b_This taxon has a complete dependency upon *Vespula rufa*: iso. Archer: 1989, which is assessed as VU. A host with a singular dependency may be no less threatened than that dependency, and so this taxon is assessed as VU.
+    <t>There is insufficient data to perform any assessment under Criterion A. The EoO (171,550 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (232 km²) is below the 500 km² EN threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+This taxon has a complete dependency upon *Vespula rufa*: iso. Archer: 1989, which is assessed as VU. A host with a singular dependency may be no less threatened than that dependency, and so this taxon is assessed as VU.
 This is the only parasitic wasp in the subfamily Vespinae, being associated with Vespula rufa. It has always been scarcer than its host, very rare south of the Severn – Wash line and with v. few early assessment records for England and Wales (where it is likely extinct in many places). Populations are probably stable in the Scottish Highlands, but it would be reasonable to expect that this species is unlikely to recover lost populations further south in the future.</t>
   </si>
   <si>
     <t>Vespula germanica: iso. Archer: 1989</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 23.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (349,600 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (6,752 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 23.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (349,600 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (6,752 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
   <si>
     <t>Vespula rufa: iso. Archer: 1989</t>
   </si>
   <si>
-    <t>The most threatening accepted population change estimate is -13.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. However, expert inference assesses this taxon at VU (30% decline via index of abundance appropriate to the taxon) based on the lack of data from the south and middle of England in very recent years. Examination of data from BWARS and iRecord shows a very strong picture of decline in frequency of recording within this region whilst other regions to the north remain relatively steady.  The clarity of this result is extremely surprising, given the convoluted nature of aculeate hymenoptera data, which provides the confidence to assess this taxon as VU rather than NT. The EoO (403,650 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,184 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E._x000b_
+    <t>The most threatening accepted population change estimate is -13.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. However, expert inference assesses this taxon at VU (30% decline via index of abundance appropriate to the taxon) based on the lack of data from the south and middle of England in very recent years. Examination of data from BWARS and iRecord shows a very strong picture of decline in frequency of recording within this region whilst other regions to the north remain relatively steady.  The clarity of this result is extremely surprising, given the convoluted nature of aculeate hymenoptera data, which provides the confidence to assess this taxon as VU rather than NT. The EoO (403,650 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (3,184 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 A vespine wasp of open situations, most common in open woodlands, moorland and hedge banks, less commonly in urban situations and other habitats. This species was historically widespread and locally common throughout GB but has heavily declined in Southern and Central England ( more than 50% from areas south of London). As with V. austriaca - the parasite of this species – the strongest modern populations are in Scotland and the VU status has been applied to both the host and the parasite.</t>
   </si>
   <si>
     <t>Vespula vulgaris: iso. Archer: 1989</t>
   </si>
   <si>
-    <t xml:space="preserve">The most threatening accepted population change estimate is 2.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (441,050 km^2) exceeds the 20,000 km^2 VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (13,328 km^2) exceeds the 2,000 km^2 VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
+    <t xml:space="preserve">The most threatening accepted population change estimate is 2.0% (discrete Extent of Occurrence), which does not exceed the 30% decline required for qualification as VU under Criterion A. The EoO (441,050 km²) exceeds the 20,000 km² VU threshold for criterion B1 and does not satisfy sufficient subcriteria to reach a threat status, and the AoO (13,328 km²) exceeds the 2,000 km² VU threshold for criterion B2 and does not satisfy sufficient subcriteria to reach a threat status. For Criterion D2, the number of locations was greater than 5 and there is no plausible threat that could drive the taxon to CR or RE in a very short time. No information was available on population size to inform assessments against Criteria C and D1; nor were any life-history models available to inform an assessment against Criterion E.
 </t>
   </si>
 </sst>
@@ -5084,9 +5103,11 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -5309,25 +5330,18 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="26.63"/>
-    <col customWidth="1" min="5" max="5" width="17.63"/>
-    <col customWidth="1" min="6" max="6" width="15.13"/>
-    <col customWidth="1" min="7" max="7" width="23.5"/>
-    <col customWidth="1" min="8" max="8" width="22.13"/>
-    <col customWidth="1" min="10" max="10" width="16.0"/>
-    <col customWidth="1" min="11" max="11" width="15.13"/>
-    <col customWidth="1" min="12" max="12" width="16.88"/>
-    <col customWidth="1" min="13" max="13" width="19.5"/>
-    <col customWidth="1" min="14" max="14" width="19.0"/>
-    <col customWidth="1" min="15" max="15" width="18.25"/>
-    <col customWidth="1" min="17" max="17" width="17.5"/>
-    <col customWidth="1" min="18" max="18" width="18.63"/>
-    <col customWidth="1" min="19" max="19" width="16.75"/>
-    <col customWidth="1" min="20" max="20" width="17.0"/>
-    <col customWidth="1" min="21" max="21" width="15.5"/>
+    <col customWidth="1" min="2" max="2" width="11.13"/>
+    <col customWidth="1" min="4" max="4" width="27.13"/>
+    <col customWidth="1" min="5" max="5" width="15.88"/>
+    <col customWidth="1" min="6" max="6" width="8.25"/>
+    <col customWidth="1" min="7" max="7" width="10.75"/>
+    <col customWidth="1" min="8" max="8" width="15.63"/>
+    <col customWidth="1" min="11" max="11" width="8.13"/>
+    <col customWidth="1" min="12" max="12" width="11.75"/>
+    <col customWidth="1" min="13" max="13" width="12.0"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="49.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
